--- a/AAII_Financials/Quarterly/FLGC_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/FLGC_QTR_FIN.xlsx
@@ -305,7 +305,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +347,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>

--- a/AAII_Financials/Quarterly/FLGC_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/FLGC_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="92">
   <si>
     <t>FLGC</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:L102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,73 +665,77 @@
     <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E7" s="2">
         <v>44196</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44012</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43921</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43830</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43646</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43555</v>
       </c>
-      <c r="J7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="K7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E8" s="3">
         <v>100</v>
       </c>
-      <c r="E8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G8" s="3">
-        <v>0</v>
-      </c>
-      <c r="H8" s="3" t="s">
-        <v>3</v>
+      <c r="G8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H8" s="3">
+        <v>0</v>
       </c>
       <c r="I8" s="3" t="s">
         <v>3</v>
@@ -742,16 +746,19 @@
       <c r="K8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>0</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>3</v>
+        <v>700</v>
+      </c>
+      <c r="E9" s="3">
+        <v>0</v>
       </c>
       <c r="F9" s="3" t="s">
         <v>3</v>
@@ -771,17 +778,20 @@
       <c r="K9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>500</v>
+      </c>
+      <c r="E10" s="3">
         <v>100</v>
       </c>
-      <c r="E10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F10" s="3" t="s">
         <v>3</v>
       </c>
@@ -800,8 +810,11 @@
       <c r="K10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -813,8 +826,9 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" s="3"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -822,7 +836,7 @@
         <v>100</v>
       </c>
       <c r="E12" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F12" s="3">
         <v>0</v>
@@ -830,8 +844,8 @@
       <c r="G12" s="3">
         <v>0</v>
       </c>
-      <c r="H12" s="3" t="s">
-        <v>3</v>
+      <c r="H12" s="3">
+        <v>0</v>
       </c>
       <c r="I12" s="3" t="s">
         <v>3</v>
@@ -842,8 +856,11 @@
       <c r="K12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -871,25 +888,28 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
+      <c r="D14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E14" s="3">
         <v>1900</v>
       </c>
-      <c r="E14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>3</v>
+      <c r="G14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H14" s="3">
+        <v>0</v>
       </c>
       <c r="I14" s="3" t="s">
         <v>3</v>
@@ -900,17 +920,20 @@
       <c r="K14" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L14" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>0</v>
+      </c>
+      <c r="E15" s="3">
         <v>100</v>
       </c>
-      <c r="E15" s="3">
-        <v>0</v>
-      </c>
       <c r="F15" s="3">
         <v>0</v>
       </c>
@@ -923,14 +946,17 @@
       <c r="I15" s="3">
         <v>0</v>
       </c>
-      <c r="J15" s="3" t="s">
-        <v>3</v>
+      <c r="J15" s="3">
+        <v>0</v>
       </c>
       <c r="K15" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L15" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -939,55 +965,59 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L16" s="3"/>
+    </row>
+    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>4000</v>
+      </c>
+      <c r="E17" s="3">
         <v>14500</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>1700</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>900</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>2800</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>1900</v>
       </c>
-      <c r="I17" s="3">
-        <v>0</v>
-      </c>
-      <c r="J17" s="3" t="s">
-        <v>3</v>
+      <c r="J17" s="3">
+        <v>0</v>
       </c>
       <c r="K17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="E18" s="3">
         <v>-14400</v>
       </c>
-      <c r="E18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F18" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G18" s="3">
+      <c r="G18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H18" s="3">
         <v>-2800</v>
       </c>
-      <c r="H18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I18" s="3" t="s">
         <v>3</v>
       </c>
@@ -997,8 +1027,11 @@
       <c r="K18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1010,25 +1043,26 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L19" s="3"/>
+    </row>
+    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E20" s="3">
         <v>100</v>
       </c>
-      <c r="E20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F20" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G20" s="3">
-        <v>0</v>
-      </c>
-      <c r="H20" s="3" t="s">
-        <v>3</v>
+      <c r="G20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H20" s="3">
+        <v>0</v>
       </c>
       <c r="I20" s="3" t="s">
         <v>3</v>
@@ -1039,26 +1073,29 @@
       <c r="K20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3">
+      <c r="D21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E21" s="3">
         <v>-14200</v>
       </c>
-      <c r="E21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G21" s="3">
+      <c r="G21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H21" s="3">
         <v>-2800</v>
       </c>
-      <c r="H21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1068,8 +1105,11 @@
       <c r="K21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1091,43 +1131,49 @@
       <c r="I22" s="3">
         <v>0</v>
       </c>
-      <c r="J22" s="3" t="s">
-        <v>3</v>
+      <c r="J22" s="3">
+        <v>0</v>
       </c>
       <c r="K22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="E23" s="3">
         <v>-14300</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-1700</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-900</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-2800</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-1900</v>
       </c>
-      <c r="I23" s="3">
-        <v>0</v>
-      </c>
-      <c r="J23" s="3" t="s">
-        <v>3</v>
+      <c r="J23" s="3">
+        <v>0</v>
       </c>
       <c r="K23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1155,8 +1201,11 @@
       <c r="K24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1184,66 +1233,75 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="E26" s="3">
         <v>-14300</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-1700</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-900</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-2800</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-1900</v>
       </c>
-      <c r="I26" s="3">
-        <v>0</v>
-      </c>
-      <c r="J26" s="3" t="s">
-        <v>3</v>
+      <c r="J26" s="3">
+        <v>0</v>
       </c>
       <c r="K26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="E27" s="3">
         <v>-14200</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-1700</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-900</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-2800</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-1900</v>
       </c>
-      <c r="I27" s="3">
-        <v>0</v>
-      </c>
-      <c r="J27" s="3" t="s">
-        <v>3</v>
+      <c r="J27" s="3">
+        <v>0</v>
       </c>
       <c r="K27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1271,8 +1329,11 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1300,8 +1361,11 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1329,8 +1393,11 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1358,25 +1425,28 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>100</v>
+      </c>
+      <c r="E32" s="3">
         <v>-100</v>
       </c>
-      <c r="E32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F32" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G32" s="3">
-        <v>0</v>
-      </c>
-      <c r="H32" s="3" t="s">
-        <v>3</v>
+      <c r="G32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H32" s="3">
+        <v>0</v>
       </c>
       <c r="I32" s="3" t="s">
         <v>3</v>
@@ -1387,37 +1457,43 @@
       <c r="K32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="E33" s="3">
         <v>-14200</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-1700</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-900</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-2800</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-1900</v>
       </c>
-      <c r="I33" s="3">
-        <v>0</v>
-      </c>
-      <c r="J33" s="3" t="s">
-        <v>3</v>
+      <c r="J33" s="3">
+        <v>0</v>
       </c>
       <c r="K33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1445,71 +1521,80 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="E35" s="3">
         <v>-14200</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-1700</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-900</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-2800</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-1900</v>
       </c>
-      <c r="I35" s="3">
-        <v>0</v>
-      </c>
-      <c r="J35" s="3" t="s">
-        <v>3</v>
+      <c r="J35" s="3">
+        <v>0</v>
       </c>
       <c r="K35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E38" s="2">
         <v>44196</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44012</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43921</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43830</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43646</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43555</v>
       </c>
-      <c r="J38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="K38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1521,8 +1606,9 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L39" s="3"/>
+    </row>
+    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1534,20 +1620,21 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L40" s="3"/>
+    </row>
+    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>18800</v>
+      </c>
+      <c r="E41" s="3">
         <v>15500</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>6200</v>
       </c>
-      <c r="F41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G41" s="3" t="s">
         <v>3</v>
       </c>
@@ -1563,8 +1650,11 @@
       <c r="K41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1592,20 +1682,23 @@
       <c r="K42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E43" s="3">
         <v>1200</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>1900</v>
       </c>
-      <c r="F43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G43" s="3" t="s">
         <v>3</v>
       </c>
@@ -1621,17 +1714,20 @@
       <c r="K43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E44" s="3">
         <v>500</v>
       </c>
-      <c r="E44" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F44" s="3" t="s">
         <v>3</v>
       </c>
@@ -1650,20 +1746,23 @@
       <c r="K44" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L44" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>2500</v>
+      </c>
+      <c r="E45" s="3">
         <v>300</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>600</v>
       </c>
-      <c r="F45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G45" s="3" t="s">
         <v>3</v>
       </c>
@@ -1679,20 +1778,23 @@
       <c r="K45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>24100</v>
+      </c>
+      <c r="E46" s="3">
         <v>17600</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>8600</v>
       </c>
-      <c r="F46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G46" s="3" t="s">
         <v>3</v>
       </c>
@@ -1708,49 +1810,55 @@
       <c r="K46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>0</v>
-      </c>
-      <c r="E47" s="3">
-        <v>0</v>
-      </c>
-      <c r="F47" s="3">
-        <v>0</v>
-      </c>
-      <c r="G47" s="3">
-        <v>0</v>
-      </c>
-      <c r="H47" s="3">
-        <v>0</v>
-      </c>
-      <c r="I47" s="3">
-        <v>0</v>
-      </c>
-      <c r="J47" s="3">
-        <v>0</v>
+        <v>2400</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J47" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>2700</v>
+      </c>
+      <c r="E48" s="3">
         <v>700</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>400</v>
       </c>
-      <c r="F48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G48" s="3" t="s">
         <v>3</v>
       </c>
@@ -1766,8 +1874,11 @@
       <c r="K48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -1775,11 +1886,11 @@
         <v>1100</v>
       </c>
       <c r="E49" s="3">
+        <v>1100</v>
+      </c>
+      <c r="F49" s="3">
         <v>200</v>
       </c>
-      <c r="F49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G49" s="3" t="s">
         <v>3</v>
       </c>
@@ -1795,8 +1906,11 @@
       <c r="K49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1824,8 +1938,11 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1853,8 +1970,11 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -1882,8 +2002,11 @@
       <c r="K52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1911,20 +2034,23 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>30300</v>
+      </c>
+      <c r="E54" s="3">
         <v>19500</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>9300</v>
       </c>
-      <c r="F54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G54" s="3" t="s">
         <v>3</v>
       </c>
@@ -1940,8 +2066,11 @@
       <c r="K54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1953,8 +2082,9 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L55" s="3"/>
+    </row>
+    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1966,20 +2096,21 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L56" s="3"/>
+    </row>
+    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>5700</v>
+      </c>
+      <c r="E57" s="3">
         <v>1800</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>1300</v>
       </c>
-      <c r="F57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G57" s="3" t="s">
         <v>3</v>
       </c>
@@ -1995,20 +2126,23 @@
       <c r="K57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>100</v>
+      </c>
+      <c r="E58" s="3">
         <v>300</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>100</v>
       </c>
-      <c r="F58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G58" s="3" t="s">
         <v>3</v>
       </c>
@@ -2024,17 +2158,20 @@
       <c r="K58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>0</v>
+      </c>
+      <c r="E59" s="3">
         <v>600</v>
       </c>
-      <c r="E59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2053,20 +2190,23 @@
       <c r="K59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>5900</v>
+      </c>
+      <c r="E60" s="3">
         <v>2700</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>1300</v>
       </c>
-      <c r="F60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2082,20 +2222,23 @@
       <c r="K60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>200</v>
+      </c>
+      <c r="E61" s="3">
         <v>300</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>200</v>
       </c>
-      <c r="F61" s="3">
-        <v>0</v>
-      </c>
       <c r="G61" s="3">
         <v>0</v>
       </c>
@@ -2111,16 +2254,19 @@
       <c r="K61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
         <v>100</v>
       </c>
-      <c r="E62" s="3" t="s">
-        <v>3</v>
+      <c r="E62" s="3">
+        <v>100</v>
       </c>
       <c r="F62" s="3" t="s">
         <v>3</v>
@@ -2140,8 +2286,11 @@
       <c r="K62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2169,8 +2318,11 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2198,8 +2350,11 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2227,20 +2382,23 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>6100</v>
+      </c>
+      <c r="E66" s="3">
         <v>3100</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>1500</v>
       </c>
-      <c r="F66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G66" s="3" t="s">
         <v>3</v>
       </c>
@@ -2256,8 +2414,11 @@
       <c r="K66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2269,8 +2430,9 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L67" s="3"/>
+    </row>
+    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2298,8 +2460,11 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2327,8 +2492,11 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2356,8 +2524,11 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2385,20 +2556,23 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-14600</v>
+      </c>
+      <c r="E72" s="3">
         <v>-10900</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-3300</v>
       </c>
-      <c r="F72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G72" s="3" t="s">
         <v>3</v>
       </c>
@@ -2414,8 +2588,11 @@
       <c r="K72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2443,8 +2620,11 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2472,8 +2652,11 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2501,20 +2684,23 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>24200</v>
+      </c>
+      <c r="E76" s="3">
         <v>16400</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>7800</v>
       </c>
-      <c r="F76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G76" s="3" t="s">
         <v>3</v>
       </c>
@@ -2530,8 +2716,11 @@
       <c r="K76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2559,71 +2748,80 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E80" s="2">
         <v>44196</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44012</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43921</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43830</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43646</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43555</v>
       </c>
-      <c r="J80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="K80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="E81" s="3">
         <v>-14200</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-1700</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-900</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-2800</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-1900</v>
       </c>
-      <c r="I81" s="3">
-        <v>0</v>
-      </c>
-      <c r="J81" s="3" t="s">
-        <v>3</v>
+      <c r="J81" s="3">
+        <v>0</v>
       </c>
       <c r="K81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2635,25 +2833,26 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L82" s="3"/>
+    </row>
+    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D83" s="3">
+      <c r="D83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E83" s="3">
         <v>100</v>
       </c>
-      <c r="E83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G83" s="3">
-        <v>0</v>
-      </c>
-      <c r="H83" s="3" t="s">
-        <v>3</v>
+      <c r="G83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H83" s="3">
+        <v>0</v>
       </c>
       <c r="I83" s="3" t="s">
         <v>3</v>
@@ -2664,8 +2863,11 @@
       <c r="K83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2693,8 +2895,11 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2722,8 +2927,11 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2751,8 +2959,11 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2780,8 +2991,11 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2809,26 +3023,29 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D89" s="3">
+      <c r="D89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E89" s="3">
         <v>-8400</v>
       </c>
-      <c r="E89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F89" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G89" s="3">
+      <c r="G89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H89" s="3">
         <v>-500</v>
       </c>
-      <c r="H89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I89" s="3" t="s">
         <v>3</v>
       </c>
@@ -2838,8 +3055,11 @@
       <c r="K89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2851,26 +3071,27 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L90" s="3"/>
+    </row>
+    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3">
+      <c r="D91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E91" s="3">
         <v>-200</v>
       </c>
-      <c r="E91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G91" s="3">
+      <c r="G91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H91" s="3">
         <v>-100</v>
       </c>
-      <c r="H91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I91" s="3" t="s">
         <v>3</v>
       </c>
@@ -2880,8 +3101,11 @@
       <c r="K91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2909,8 +3133,11 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2938,26 +3165,29 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D94" s="3">
+      <c r="D94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E94" s="3">
         <v>-2200</v>
       </c>
-      <c r="E94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F94" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G94" s="3">
+      <c r="G94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H94" s="3">
         <v>-400</v>
       </c>
-      <c r="H94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I94" s="3" t="s">
         <v>3</v>
       </c>
@@ -2967,8 +3197,11 @@
       <c r="K94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2980,8 +3213,9 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L95" s="3"/>
+    </row>
+    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3009,8 +3243,11 @@
       <c r="K96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3038,8 +3275,11 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3067,8 +3307,11 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3096,26 +3339,29 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D100" s="3">
+      <c r="D100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E100" s="3">
         <v>25800</v>
       </c>
-      <c r="E100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F100" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G100" s="3">
+      <c r="G100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H100" s="3">
         <v>1000</v>
       </c>
-      <c r="H100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I100" s="3" t="s">
         <v>3</v>
       </c>
@@ -3125,25 +3371,28 @@
       <c r="K100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D101" s="3">
+      <c r="D101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E101" s="3">
         <v>200</v>
       </c>
-      <c r="E101" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F101" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G101" s="3">
-        <v>0</v>
-      </c>
-      <c r="H101" s="3" t="s">
-        <v>3</v>
+      <c r="G101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H101" s="3">
+        <v>0</v>
       </c>
       <c r="I101" s="3" t="s">
         <v>3</v>
@@ -3154,26 +3403,29 @@
       <c r="K101" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L101" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D102" s="3">
+      <c r="D102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E102" s="3">
         <v>15400</v>
       </c>
-      <c r="E102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F102" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G102" s="3">
+      <c r="G102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H102" s="3">
         <v>100</v>
       </c>
-      <c r="H102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I102" s="3" t="s">
         <v>3</v>
       </c>
@@ -3181,6 +3433,9 @@
         <v>3</v>
       </c>
       <c r="K102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/FLGC_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/FLGC_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="92">
   <si>
     <t>FLGC</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:L102"/>
+  <dimension ref="A5:N102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -672,71 +672,79 @@
     <col min="8" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="F7" s="2">
         <v>44377</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
+        <v>44286</v>
+      </c>
+      <c r="H7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="I7" s="2">
         <v>44012</v>
       </c>
-      <c r="G7" s="2">
+      <c r="J7" s="2">
         <v>43921</v>
       </c>
-      <c r="H7" s="2">
-        <v>43830</v>
-      </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43646</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43555</v>
       </c>
-      <c r="K7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="L7" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>14900</v>
+      </c>
+      <c r="E8" s="3">
+        <v>9000</v>
+      </c>
+      <c r="F8" s="3">
         <v>1200</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
+        <v>1000</v>
+      </c>
+      <c r="H8" s="3">
         <v>100</v>
       </c>
-      <c r="F8" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H8" s="3">
-        <v>0</v>
-      </c>
       <c r="I8" s="3" t="s">
         <v>3</v>
       </c>
@@ -749,25 +757,31 @@
       <c r="L8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>8400</v>
+      </c>
+      <c r="E9" s="3">
+        <v>6600</v>
+      </c>
+      <c r="F9" s="3">
         <v>700</v>
       </c>
-      <c r="E9" s="3">
-        <v>0</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H9" s="3" t="s">
-        <v>3</v>
+      <c r="G9" s="3">
+        <v>400</v>
+      </c>
+      <c r="H9" s="3">
+        <v>0</v>
       </c>
       <c r="I9" s="3" t="s">
         <v>3</v>
@@ -781,26 +795,32 @@
       <c r="L9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>6500</v>
+      </c>
+      <c r="E10" s="3">
+        <v>2400</v>
+      </c>
+      <c r="F10" s="3">
         <v>500</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
+        <v>600</v>
+      </c>
+      <c r="H10" s="3">
         <v>100</v>
       </c>
-      <c r="F10" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I10" s="3" t="s">
         <v>3</v>
       </c>
@@ -813,8 +833,14 @@
       <c r="L10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -827,31 +853,33 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M11" s="3"/>
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="E12" s="3">
         <v>100</v>
       </c>
       <c r="F12" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G12" s="3">
         <v>0</v>
       </c>
       <c r="H12" s="3">
-        <v>0</v>
-      </c>
-      <c r="I12" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J12" s="3" t="s">
-        <v>3</v>
+        <v>100</v>
+      </c>
+      <c r="I12" s="3">
+        <v>0</v>
+      </c>
+      <c r="J12" s="3">
+        <v>0</v>
       </c>
       <c r="K12" s="3" t="s">
         <v>3</v>
@@ -859,8 +887,14 @@
       <c r="L12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -891,26 +925,32 @@
       <c r="L13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>3</v>
+      <c r="D14" s="3">
+        <v>16000</v>
       </c>
       <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H14" s="3">
         <v>1900</v>
       </c>
-      <c r="F14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
       <c r="I14" s="3" t="s">
         <v>3</v>
       </c>
@@ -923,25 +963,31 @@
       <c r="L14" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N14" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>0</v>
+        <v>1700</v>
       </c>
       <c r="E15" s="3">
+        <v>800</v>
+      </c>
+      <c r="F15" s="3">
+        <v>0</v>
+      </c>
+      <c r="G15" s="3">
         <v>100</v>
       </c>
-      <c r="F15" s="3">
-        <v>0</v>
-      </c>
-      <c r="G15" s="3">
-        <v>0</v>
-      </c>
       <c r="H15" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I15" s="3">
         <v>0</v>
@@ -949,14 +995,20 @@
       <c r="J15" s="3">
         <v>0</v>
       </c>
-      <c r="K15" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L15" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="K15" s="3">
+        <v>0</v>
+      </c>
+      <c r="L15" s="3">
+        <v>0</v>
+      </c>
+      <c r="M15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N15" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -966,58 +1018,66 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
-    </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M16" s="3"/>
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>44600</v>
+      </c>
+      <c r="E17" s="3">
+        <v>27900</v>
+      </c>
+      <c r="F17" s="3">
         <v>4000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
+        <v>3100</v>
+      </c>
+      <c r="H17" s="3">
         <v>14500</v>
       </c>
-      <c r="F17" s="3">
+      <c r="I17" s="3">
         <v>1700</v>
       </c>
-      <c r="G17" s="3">
+      <c r="J17" s="3">
         <v>900</v>
       </c>
-      <c r="H17" s="3">
-        <v>2800</v>
-      </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>1900</v>
       </c>
-      <c r="J17" s="3">
-        <v>0</v>
-      </c>
-      <c r="K17" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L17" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L17" s="3">
+        <v>0</v>
+      </c>
+      <c r="M17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-29700</v>
+      </c>
+      <c r="E18" s="3">
+        <v>-18900</v>
+      </c>
+      <c r="F18" s="3">
         <v>-2800</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="H18" s="3">
         <v>-14400</v>
       </c>
-      <c r="F18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H18" s="3">
-        <v>-2800</v>
-      </c>
       <c r="I18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1030,8 +1090,14 @@
       <c r="L18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1044,26 +1110,28 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
-    </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M19" s="3"/>
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="E20" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="F20" s="3">
         <v>-100</v>
       </c>
-      <c r="E20" s="3">
+      <c r="G20" s="3">
+        <v>0</v>
+      </c>
+      <c r="H20" s="3">
         <v>100</v>
       </c>
-      <c r="F20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H20" s="3">
-        <v>0</v>
-      </c>
       <c r="I20" s="3" t="s">
         <v>3</v>
       </c>
@@ -1076,16 +1144,22 @@
       <c r="L20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>3</v>
+      <c r="D21" s="3">
+        <v>-30900</v>
       </c>
       <c r="E21" s="3">
-        <v>-14200</v>
+        <v>-20600</v>
       </c>
       <c r="F21" s="3" t="s">
         <v>3</v>
@@ -1093,8 +1167,8 @@
       <c r="G21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H21" s="3">
-        <v>-2800</v>
+      <c r="H21" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="I21" s="3" t="s">
         <v>3</v>
@@ -1108,16 +1182,22 @@
       <c r="L21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F22" s="3">
         <v>0</v>
@@ -1134,46 +1214,58 @@
       <c r="J22" s="3">
         <v>0</v>
       </c>
-      <c r="K22" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L22" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="K22" s="3">
+        <v>0</v>
+      </c>
+      <c r="L22" s="3">
+        <v>0</v>
+      </c>
+      <c r="M22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-32700</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-21500</v>
+      </c>
+      <c r="F23" s="3">
         <v>-3000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="H23" s="3">
         <v>-14300</v>
       </c>
-      <c r="F23" s="3">
+      <c r="I23" s="3">
         <v>-1700</v>
       </c>
-      <c r="G23" s="3">
+      <c r="J23" s="3">
         <v>-900</v>
       </c>
-      <c r="H23" s="3">
-        <v>-2800</v>
-      </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>-1900</v>
       </c>
-      <c r="J23" s="3">
-        <v>0</v>
-      </c>
-      <c r="K23" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L23" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L23" s="3">
+        <v>0</v>
+      </c>
+      <c r="M23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1181,22 +1273,22 @@
         <v>0</v>
       </c>
       <c r="E24" s="3">
-        <v>0</v>
-      </c>
-      <c r="F24" s="3">
-        <v>0</v>
-      </c>
-      <c r="G24" s="3">
-        <v>0</v>
-      </c>
-      <c r="H24" s="3">
-        <v>0</v>
-      </c>
-      <c r="I24" s="3">
-        <v>0</v>
-      </c>
-      <c r="J24" s="3">
-        <v>0</v>
+        <v>-100</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J24" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K24" s="3">
         <v>0</v>
@@ -1204,8 +1296,14 @@
       <c r="L24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M24" s="3">
+        <v>0</v>
+      </c>
+      <c r="N24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1236,72 +1334,90 @@
       <c r="L25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-32700</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-21400</v>
+      </c>
+      <c r="F26" s="3">
         <v>-3000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="H26" s="3">
         <v>-14300</v>
       </c>
-      <c r="F26" s="3">
+      <c r="I26" s="3">
         <v>-1700</v>
       </c>
-      <c r="G26" s="3">
+      <c r="J26" s="3">
         <v>-900</v>
       </c>
-      <c r="H26" s="3">
-        <v>-2800</v>
-      </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>-1900</v>
       </c>
-      <c r="J26" s="3">
-        <v>0</v>
-      </c>
-      <c r="K26" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L26" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L26" s="3">
+        <v>0</v>
+      </c>
+      <c r="M26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-32600</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-21200</v>
+      </c>
+      <c r="F27" s="3">
         <v>-3000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="H27" s="3">
         <v>-14200</v>
       </c>
-      <c r="F27" s="3">
+      <c r="I27" s="3">
         <v>-1700</v>
       </c>
-      <c r="G27" s="3">
+      <c r="J27" s="3">
         <v>-900</v>
       </c>
-      <c r="H27" s="3">
-        <v>-2800</v>
-      </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>-1900</v>
       </c>
-      <c r="J27" s="3">
-        <v>0</v>
-      </c>
-      <c r="K27" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L27" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L27" s="3">
+        <v>0</v>
+      </c>
+      <c r="M27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1332,8 +1448,14 @@
       <c r="L28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1364,8 +1486,14 @@
       <c r="L29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1396,8 +1524,14 @@
       <c r="L30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1428,26 +1562,32 @@
       <c r="L31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>2900</v>
+      </c>
+      <c r="E32" s="3">
+        <v>2400</v>
+      </c>
+      <c r="F32" s="3">
         <v>100</v>
       </c>
-      <c r="E32" s="3">
+      <c r="G32" s="3">
+        <v>0</v>
+      </c>
+      <c r="H32" s="3">
         <v>-100</v>
       </c>
-      <c r="F32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H32" s="3">
-        <v>0</v>
-      </c>
       <c r="I32" s="3" t="s">
         <v>3</v>
       </c>
@@ -1460,40 +1600,52 @@
       <c r="L32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-32600</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-21200</v>
+      </c>
+      <c r="F33" s="3">
         <v>-3000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="H33" s="3">
         <v>-14200</v>
       </c>
-      <c r="F33" s="3">
+      <c r="I33" s="3">
         <v>-1700</v>
       </c>
-      <c r="G33" s="3">
+      <c r="J33" s="3">
         <v>-900</v>
       </c>
-      <c r="H33" s="3">
-        <v>-2800</v>
-      </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>-1900</v>
       </c>
-      <c r="J33" s="3">
-        <v>0</v>
-      </c>
-      <c r="K33" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L33" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L33" s="3">
+        <v>0</v>
+      </c>
+      <c r="M33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1524,77 +1676,95 @@
       <c r="L34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-32600</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-21200</v>
+      </c>
+      <c r="F35" s="3">
         <v>-3000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="H35" s="3">
         <v>-14200</v>
       </c>
-      <c r="F35" s="3">
+      <c r="I35" s="3">
         <v>-1700</v>
       </c>
-      <c r="G35" s="3">
+      <c r="J35" s="3">
         <v>-900</v>
       </c>
-      <c r="H35" s="3">
-        <v>-2800</v>
-      </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>-1900</v>
       </c>
-      <c r="J35" s="3">
-        <v>0</v>
-      </c>
-      <c r="K35" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L35" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L35" s="3">
+        <v>0</v>
+      </c>
+      <c r="M35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="F38" s="2">
         <v>44377</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
+        <v>44286</v>
+      </c>
+      <c r="H38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="I38" s="2">
         <v>44012</v>
       </c>
-      <c r="G38" s="2">
+      <c r="J38" s="2">
         <v>43921</v>
       </c>
-      <c r="H38" s="2">
-        <v>43830</v>
-      </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43646</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43555</v>
       </c>
-      <c r="K38" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="L38" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="N38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1607,8 +1777,10 @@
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
-    </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M39" s="3"/>
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1621,23 +1793,25 @@
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
-    </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M40" s="3"/>
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>10300</v>
+      </c>
+      <c r="E41" s="3">
+        <v>37600</v>
+      </c>
+      <c r="F41" s="3">
         <v>18800</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>15500</v>
       </c>
-      <c r="F41" s="3">
-        <v>6200</v>
-      </c>
-      <c r="G41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H41" s="3" t="s">
         <v>3</v>
       </c>
@@ -1653,8 +1827,14 @@
       <c r="L41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1685,22 +1865,28 @@
       <c r="L42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M42" s="3">
+        <v>0</v>
+      </c>
+      <c r="N42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>1900</v>
+        <v>5400</v>
       </c>
       <c r="E43" s="3">
-        <v>1200</v>
+        <v>5600</v>
       </c>
       <c r="F43" s="3">
         <v>1900</v>
       </c>
-      <c r="G43" s="3" t="s">
-        <v>3</v>
+      <c r="G43" s="3">
+        <v>1200</v>
       </c>
       <c r="H43" s="3" t="s">
         <v>3</v>
@@ -1717,23 +1903,29 @@
       <c r="L43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>9300</v>
+      </c>
+      <c r="E44" s="3">
+        <v>3000</v>
+      </c>
+      <c r="F44" s="3">
         <v>1000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="G44" s="3">
         <v>500</v>
       </c>
-      <c r="F44" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G44" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H44" s="3" t="s">
         <v>3</v>
       </c>
@@ -1749,23 +1941,29 @@
       <c r="L44" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M44" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N44" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>2200</v>
+      </c>
+      <c r="E45" s="3">
+        <v>1700</v>
+      </c>
+      <c r="F45" s="3">
         <v>2500</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>300</v>
       </c>
-      <c r="F45" s="3">
-        <v>600</v>
-      </c>
-      <c r="G45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H45" s="3" t="s">
         <v>3</v>
       </c>
@@ -1781,23 +1979,29 @@
       <c r="L45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>27200</v>
+      </c>
+      <c r="E46" s="3">
+        <v>47900</v>
+      </c>
+      <c r="F46" s="3">
         <v>24100</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>17600</v>
       </c>
-      <c r="F46" s="3">
-        <v>8600</v>
-      </c>
-      <c r="G46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H46" s="3" t="s">
         <v>3</v>
       </c>
@@ -1813,20 +2017,26 @@
       <c r="L46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E47" s="3">
+        <v>2700</v>
+      </c>
+      <c r="F47" s="3">
         <v>2400</v>
       </c>
-      <c r="E47" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G47" s="3" t="s">
         <v>3</v>
       </c>
@@ -1839,29 +2049,35 @@
       <c r="J47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K47" s="3">
-        <v>0</v>
-      </c>
-      <c r="L47" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="K47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M47" s="3">
+        <v>0</v>
+      </c>
+      <c r="N47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>8200</v>
+      </c>
+      <c r="E48" s="3">
+        <v>5000</v>
+      </c>
+      <c r="F48" s="3">
         <v>2700</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>700</v>
       </c>
-      <c r="F48" s="3">
-        <v>400</v>
-      </c>
-      <c r="G48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H48" s="3" t="s">
         <v>3</v>
       </c>
@@ -1877,23 +2093,29 @@
       <c r="L48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>42100</v>
+      </c>
+      <c r="E49" s="3">
+        <v>29800</v>
+      </c>
+      <c r="F49" s="3">
         <v>1100</v>
       </c>
-      <c r="E49" s="3">
+      <c r="G49" s="3">
         <v>1100</v>
       </c>
-      <c r="F49" s="3">
-        <v>200</v>
-      </c>
-      <c r="G49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H49" s="3" t="s">
         <v>3</v>
       </c>
@@ -1909,8 +2131,14 @@
       <c r="L49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1941,8 +2169,14 @@
       <c r="L50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1973,31 +2207,37 @@
       <c r="L51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="E52" s="3">
-        <v>0</v>
-      </c>
-      <c r="F52" s="3">
-        <v>0</v>
-      </c>
-      <c r="G52" s="3">
-        <v>0</v>
-      </c>
-      <c r="H52" s="3">
-        <v>0</v>
-      </c>
-      <c r="I52" s="3">
-        <v>0</v>
-      </c>
-      <c r="J52" s="3">
-        <v>0</v>
+        <v>100</v>
+      </c>
+      <c r="F52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J52" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K52" s="3">
         <v>0</v>
@@ -2005,8 +2245,14 @@
       <c r="L52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M52" s="3">
+        <v>0</v>
+      </c>
+      <c r="N52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2037,23 +2283,29 @@
       <c r="L53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>79100</v>
+      </c>
+      <c r="E54" s="3">
+        <v>85500</v>
+      </c>
+      <c r="F54" s="3">
         <v>30300</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>19500</v>
       </c>
-      <c r="F54" s="3">
-        <v>9300</v>
-      </c>
-      <c r="G54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2069,8 +2321,14 @@
       <c r="L54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2083,8 +2341,10 @@
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
-    </row>
-    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M55" s="3"/>
+      <c r="N55" s="3"/>
+    </row>
+    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2097,23 +2357,25 @@
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
-    </row>
-    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M56" s="3"/>
+      <c r="N56" s="3"/>
+    </row>
+    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>7400</v>
+      </c>
+      <c r="E57" s="3">
+        <v>5600</v>
+      </c>
+      <c r="F57" s="3">
         <v>5700</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>1800</v>
       </c>
-      <c r="F57" s="3">
-        <v>1300</v>
-      </c>
-      <c r="G57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2129,22 +2391,28 @@
       <c r="L57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>100</v>
+        <v>1100</v>
       </c>
       <c r="E58" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="F58" s="3">
         <v>100</v>
       </c>
-      <c r="G58" s="3" t="s">
-        <v>3</v>
+      <c r="G58" s="3">
+        <v>300</v>
       </c>
       <c r="H58" s="3" t="s">
         <v>3</v>
@@ -2161,8 +2429,14 @@
       <c r="L58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -2170,14 +2444,14 @@
         <v>0</v>
       </c>
       <c r="E59" s="3">
+        <v>100</v>
+      </c>
+      <c r="F59" s="3">
+        <v>0</v>
+      </c>
+      <c r="G59" s="3">
         <v>600</v>
       </c>
-      <c r="F59" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2193,23 +2467,29 @@
       <c r="L59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>8600</v>
+      </c>
+      <c r="E60" s="3">
+        <v>6100</v>
+      </c>
+      <c r="F60" s="3">
         <v>5900</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>2700</v>
       </c>
-      <c r="F60" s="3">
-        <v>1300</v>
-      </c>
-      <c r="G60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2225,22 +2505,28 @@
       <c r="L60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>200</v>
+        <v>2600</v>
       </c>
       <c r="E61" s="3">
-        <v>300</v>
+        <v>900</v>
       </c>
       <c r="F61" s="3">
         <v>200</v>
       </c>
       <c r="G61" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="H61" s="3">
         <v>0</v>
@@ -2257,23 +2543,29 @@
       <c r="L61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M61" s="3">
+        <v>0</v>
+      </c>
+      <c r="N61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>5500</v>
+      </c>
+      <c r="E62" s="3">
+        <v>1500</v>
+      </c>
+      <c r="F62" s="3">
         <v>100</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>100</v>
       </c>
-      <c r="F62" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H62" s="3" t="s">
         <v>3</v>
       </c>
@@ -2289,8 +2581,14 @@
       <c r="L62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2321,8 +2619,14 @@
       <c r="L63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2353,8 +2657,14 @@
       <c r="L64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2385,23 +2695,29 @@
       <c r="L65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>16300</v>
+      </c>
+      <c r="E66" s="3">
+        <v>8300</v>
+      </c>
+      <c r="F66" s="3">
         <v>6100</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>3100</v>
       </c>
-      <c r="F66" s="3">
-        <v>1500</v>
-      </c>
-      <c r="G66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H66" s="3" t="s">
         <v>3</v>
       </c>
@@ -2417,8 +2733,14 @@
       <c r="L66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2431,8 +2753,10 @@
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
-    </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M67" s="3"/>
+      <c r="N67" s="3"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2463,8 +2787,14 @@
       <c r="L68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2495,8 +2825,14 @@
       <c r="L69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2527,8 +2863,14 @@
       <c r="L70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2559,23 +2901,29 @@
       <c r="L71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-54900</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-24200</v>
+      </c>
+      <c r="F72" s="3">
         <v>-14600</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-10900</v>
       </c>
-      <c r="F72" s="3">
-        <v>-3300</v>
-      </c>
-      <c r="G72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H72" s="3" t="s">
         <v>3</v>
       </c>
@@ -2591,8 +2939,14 @@
       <c r="L72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2623,8 +2977,14 @@
       <c r="L73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2655,8 +3015,14 @@
       <c r="L74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2687,23 +3053,29 @@
       <c r="L75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>62800</v>
+      </c>
+      <c r="E76" s="3">
+        <v>77200</v>
+      </c>
+      <c r="F76" s="3">
         <v>24200</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>16400</v>
       </c>
-      <c r="F76" s="3">
-        <v>7800</v>
-      </c>
-      <c r="G76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H76" s="3" t="s">
         <v>3</v>
       </c>
@@ -2719,8 +3091,14 @@
       <c r="L76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2751,77 +3129,95 @@
       <c r="L77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="F80" s="2">
         <v>44377</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
+        <v>44286</v>
+      </c>
+      <c r="H80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="I80" s="2">
         <v>44012</v>
       </c>
-      <c r="G80" s="2">
+      <c r="J80" s="2">
         <v>43921</v>
       </c>
-      <c r="H80" s="2">
-        <v>43830</v>
-      </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43646</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43555</v>
       </c>
-      <c r="K80" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="L80" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="N80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-32600</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-21200</v>
+      </c>
+      <c r="F81" s="3">
         <v>-3000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="H81" s="3">
         <v>-14200</v>
       </c>
-      <c r="F81" s="3">
+      <c r="I81" s="3">
         <v>-1700</v>
       </c>
-      <c r="G81" s="3">
+      <c r="J81" s="3">
         <v>-900</v>
       </c>
-      <c r="H81" s="3">
-        <v>-2800</v>
-      </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>-1900</v>
       </c>
-      <c r="J81" s="3">
-        <v>0</v>
-      </c>
-      <c r="K81" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L81" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L81" s="3">
+        <v>0</v>
+      </c>
+      <c r="M81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2834,29 +3230,31 @@
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
-    </row>
-    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M82" s="3"/>
+      <c r="N82" s="3"/>
+    </row>
+    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D83" s="3" t="s">
-        <v>3</v>
+      <c r="D83" s="3">
+        <v>1700</v>
       </c>
       <c r="E83" s="3">
+        <v>800</v>
+      </c>
+      <c r="F83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I83" s="3">
         <v>100</v>
       </c>
-      <c r="F83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H83" s="3">
-        <v>0</v>
-      </c>
-      <c r="I83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J83" s="3" t="s">
         <v>3</v>
       </c>
@@ -2866,8 +3264,14 @@
       <c r="L83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2898,8 +3302,14 @@
       <c r="L84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2930,8 +3340,14 @@
       <c r="L85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2962,8 +3378,14 @@
       <c r="L86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2994,8 +3416,14 @@
       <c r="L87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3026,16 +3454,22 @@
       <c r="L88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D89" s="3" t="s">
-        <v>3</v>
+      <c r="D89" s="3">
+        <v>-10500</v>
       </c>
       <c r="E89" s="3">
-        <v>-8400</v>
+        <v>-20600</v>
       </c>
       <c r="F89" s="3" t="s">
         <v>3</v>
@@ -3043,11 +3477,11 @@
       <c r="G89" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H89" s="3">
-        <v>-500</v>
-      </c>
-      <c r="I89" s="3" t="s">
-        <v>3</v>
+      <c r="H89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I89" s="3">
+        <v>-2100</v>
       </c>
       <c r="J89" s="3" t="s">
         <v>3</v>
@@ -3058,8 +3492,14 @@
       <c r="L89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3072,16 +3512,18 @@
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
-    </row>
-    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M90" s="3"/>
+      <c r="N90" s="3"/>
+    </row>
+    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3" t="s">
-        <v>3</v>
+      <c r="D91" s="3">
+        <v>-700</v>
       </c>
       <c r="E91" s="3">
-        <v>-200</v>
+        <v>-4000</v>
       </c>
       <c r="F91" s="3" t="s">
         <v>3</v>
@@ -3089,12 +3531,12 @@
       <c r="G91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H91" s="3">
+      <c r="H91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I91" s="3">
         <v>-100</v>
       </c>
-      <c r="I91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J91" s="3" t="s">
         <v>3</v>
       </c>
@@ -3104,8 +3546,14 @@
       <c r="L91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3136,8 +3584,14 @@
       <c r="L92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3168,16 +3622,22 @@
       <c r="L93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D94" s="3" t="s">
-        <v>3</v>
+      <c r="D94" s="3">
+        <v>-16200</v>
       </c>
       <c r="E94" s="3">
-        <v>-2200</v>
+        <v>-14600</v>
       </c>
       <c r="F94" s="3" t="s">
         <v>3</v>
@@ -3185,11 +3645,11 @@
       <c r="G94" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H94" s="3">
-        <v>-400</v>
-      </c>
-      <c r="I94" s="3" t="s">
-        <v>3</v>
+      <c r="H94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I94" s="3">
+        <v>-1600</v>
       </c>
       <c r="J94" s="3" t="s">
         <v>3</v>
@@ -3200,8 +3660,14 @@
       <c r="L94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3214,8 +3680,10 @@
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
-    </row>
-    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M95" s="3"/>
+      <c r="N95" s="3"/>
+    </row>
+    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3246,8 +3714,14 @@
       <c r="L96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M96" s="3">
+        <v>0</v>
+      </c>
+      <c r="N96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3278,8 +3752,14 @@
       <c r="L97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3310,8 +3790,14 @@
       <c r="L98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3342,16 +3828,22 @@
       <c r="L99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D100" s="3" t="s">
-        <v>3</v>
+      <c r="D100" s="3">
+        <v>-500</v>
       </c>
       <c r="E100" s="3">
-        <v>25800</v>
+        <v>58100</v>
       </c>
       <c r="F100" s="3" t="s">
         <v>3</v>
@@ -3359,11 +3851,11 @@
       <c r="G100" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H100" s="3">
-        <v>1000</v>
-      </c>
-      <c r="I100" s="3" t="s">
-        <v>3</v>
+      <c r="H100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I100" s="3">
+        <v>10200</v>
       </c>
       <c r="J100" s="3" t="s">
         <v>3</v>
@@ -3374,16 +3866,22 @@
       <c r="L100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D101" s="3" t="s">
-        <v>3</v>
+      <c r="D101" s="3">
+        <v>-200</v>
       </c>
       <c r="E101" s="3">
-        <v>200</v>
+        <v>-800</v>
       </c>
       <c r="F101" s="3" t="s">
         <v>3</v>
@@ -3391,11 +3889,11 @@
       <c r="G101" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H101" s="3">
-        <v>0</v>
-      </c>
-      <c r="I101" s="3" t="s">
-        <v>3</v>
+      <c r="H101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I101" s="3">
+        <v>100</v>
       </c>
       <c r="J101" s="3" t="s">
         <v>3</v>
@@ -3406,16 +3904,22 @@
       <c r="L101" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N101" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D102" s="3" t="s">
-        <v>3</v>
+      <c r="D102" s="3">
+        <v>-27300</v>
       </c>
       <c r="E102" s="3">
-        <v>15400</v>
+        <v>22100</v>
       </c>
       <c r="F102" s="3" t="s">
         <v>3</v>
@@ -3423,11 +3927,11 @@
       <c r="G102" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H102" s="3">
-        <v>100</v>
-      </c>
-      <c r="I102" s="3" t="s">
-        <v>3</v>
+      <c r="H102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I102" s="3">
+        <v>6600</v>
       </c>
       <c r="J102" s="3" t="s">
         <v>3</v>
@@ -3436,6 +3940,12 @@
         <v>3</v>
       </c>
       <c r="L102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/FLGC_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/FLGC_QTR_FIN.xlsx
@@ -1026,7 +1026,7 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>44600</v>
+        <v>46000</v>
       </c>
       <c r="E17" s="3">
         <v>27900</v>
@@ -1064,7 +1064,7 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-29700</v>
+        <v>-31100</v>
       </c>
       <c r="E18" s="3">
         <v>-18900</v>
@@ -1118,7 +1118,7 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-2900</v>
+        <v>-1500</v>
       </c>
       <c r="E20" s="3">
         <v>-2400</v>
@@ -1574,7 +1574,7 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>2900</v>
+        <v>1500</v>
       </c>
       <c r="E32" s="3">
         <v>2400</v>

--- a/AAII_Financials/Quarterly/FLGC_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/FLGC_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:N102"/>
+  <dimension ref="A5:O102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,89 +665,93 @@
     <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44377</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44286</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44196</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44012</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43921</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43646</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43555</v>
       </c>
-      <c r="M7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="N7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>10800</v>
+      </c>
+      <c r="E8" s="3">
         <v>14900</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>9000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>1200</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>1000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>100</v>
       </c>
-      <c r="I8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J8" s="3" t="s">
         <v>3</v>
       </c>
@@ -763,28 +767,31 @@
       <c r="N8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>5900</v>
+      </c>
+      <c r="E9" s="3">
         <v>8400</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>6600</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>700</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>400</v>
       </c>
-      <c r="H9" s="3">
-        <v>0</v>
-      </c>
-      <c r="I9" s="3" t="s">
-        <v>3</v>
+      <c r="I9" s="3">
+        <v>0</v>
       </c>
       <c r="J9" s="3" t="s">
         <v>3</v>
@@ -801,29 +808,32 @@
       <c r="N9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>4900</v>
+      </c>
+      <c r="E10" s="3">
         <v>6500</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>2400</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>500</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>600</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>100</v>
       </c>
-      <c r="I10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J10" s="3" t="s">
         <v>3</v>
       </c>
@@ -839,8 +849,11 @@
       <c r="N10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -855,34 +868,35 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>200</v>
+      </c>
+      <c r="E12" s="3">
         <v>400</v>
-      </c>
-      <c r="E12" s="3">
-        <v>100</v>
       </c>
       <c r="F12" s="3">
         <v>100</v>
       </c>
       <c r="G12" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H12" s="3">
+        <v>0</v>
+      </c>
+      <c r="I12" s="3">
         <v>100</v>
       </c>
-      <c r="I12" s="3">
-        <v>0</v>
-      </c>
       <c r="J12" s="3">
         <v>0</v>
       </c>
-      <c r="K12" s="3" t="s">
-        <v>3</v>
+      <c r="K12" s="3">
+        <v>0</v>
       </c>
       <c r="L12" s="3" t="s">
         <v>3</v>
@@ -893,8 +907,11 @@
       <c r="N12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -931,29 +948,32 @@
       <c r="N13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E14" s="3">
         <v>16000</v>
       </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>3</v>
+      <c r="F14" s="3">
+        <v>0</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H14" s="3">
+      <c r="H14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I14" s="3">
         <v>1900</v>
       </c>
-      <c r="I14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J14" s="3" t="s">
         <v>3</v>
       </c>
@@ -969,28 +989,31 @@
       <c r="N14" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O14" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E15" s="3">
         <v>1700</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>800</v>
       </c>
-      <c r="F15" s="3">
-        <v>0</v>
-      </c>
       <c r="G15" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H15" s="3">
         <v>100</v>
       </c>
       <c r="I15" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J15" s="3">
         <v>0</v>
@@ -1001,14 +1024,17 @@
       <c r="L15" s="3">
         <v>0</v>
       </c>
-      <c r="M15" s="3" t="s">
-        <v>3</v>
+      <c r="M15" s="3">
+        <v>0</v>
       </c>
       <c r="N15" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O15" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1020,67 +1046,71 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>15800</v>
+      </c>
+      <c r="E17" s="3">
         <v>46000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>27900</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>4000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>3100</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>14500</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>1700</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>900</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1900</v>
       </c>
-      <c r="L17" s="3">
-        <v>0</v>
-      </c>
-      <c r="M17" s="3" t="s">
-        <v>3</v>
+      <c r="M17" s="3">
+        <v>0</v>
       </c>
       <c r="N17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-5000</v>
+      </c>
+      <c r="E18" s="3">
         <v>-31100</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-18900</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-2800</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-2100</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-14400</v>
       </c>
-      <c r="I18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1096,8 +1126,11 @@
       <c r="N18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1112,29 +1145,30 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="E20" s="3">
         <v>-1500</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-2400</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-100</v>
       </c>
-      <c r="G20" s="3">
-        <v>0</v>
-      </c>
       <c r="H20" s="3">
+        <v>0</v>
+      </c>
+      <c r="I20" s="3">
         <v>100</v>
       </c>
-      <c r="I20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J20" s="3" t="s">
         <v>3</v>
       </c>
@@ -1150,20 +1184,23 @@
       <c r="N20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-6300</v>
+      </c>
+      <c r="E21" s="3">
         <v>-30900</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-20600</v>
       </c>
-      <c r="F21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1188,8 +1225,11 @@
       <c r="N21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1200,7 +1240,7 @@
         <v>100</v>
       </c>
       <c r="F22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G22" s="3">
         <v>0</v>
@@ -1220,52 +1260,58 @@
       <c r="L22" s="3">
         <v>0</v>
       </c>
-      <c r="M22" s="3" t="s">
-        <v>3</v>
+      <c r="M22" s="3">
+        <v>0</v>
       </c>
       <c r="N22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-7400</v>
+      </c>
+      <c r="E23" s="3">
         <v>-32700</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-21500</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-3000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-2200</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-14300</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-1700</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-1900</v>
       </c>
-      <c r="L23" s="3">
-        <v>0</v>
-      </c>
-      <c r="M23" s="3" t="s">
-        <v>3</v>
+      <c r="M23" s="3">
+        <v>0</v>
       </c>
       <c r="N23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1273,11 +1319,11 @@
         <v>0</v>
       </c>
       <c r="E24" s="3">
+        <v>0</v>
+      </c>
+      <c r="F24" s="3">
         <v>-100</v>
       </c>
-      <c r="F24" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G24" s="3" t="s">
         <v>3</v>
       </c>
@@ -1290,8 +1336,8 @@
       <c r="J24" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K24" s="3">
-        <v>0</v>
+      <c r="K24" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L24" s="3">
         <v>0</v>
@@ -1302,8 +1348,11 @@
       <c r="N24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1340,84 +1389,93 @@
       <c r="N25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-7400</v>
+      </c>
+      <c r="E26" s="3">
         <v>-32700</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-21400</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-3000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-2200</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-14300</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-1700</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-900</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-1900</v>
       </c>
-      <c r="L26" s="3">
-        <v>0</v>
-      </c>
-      <c r="M26" s="3" t="s">
-        <v>3</v>
+      <c r="M26" s="3">
+        <v>0</v>
       </c>
       <c r="N26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-7400</v>
+      </c>
+      <c r="E27" s="3">
         <v>-32600</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-21200</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-3000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-2100</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-14200</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-1700</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-900</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-1900</v>
       </c>
-      <c r="L27" s="3">
-        <v>0</v>
-      </c>
-      <c r="M27" s="3" t="s">
-        <v>3</v>
+      <c r="M27" s="3">
+        <v>0</v>
       </c>
       <c r="N27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1454,8 +1512,11 @@
       <c r="N28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1492,8 +1553,11 @@
       <c r="N29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1530,8 +1594,11 @@
       <c r="N30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1568,29 +1635,32 @@
       <c r="N31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>2300</v>
+      </c>
+      <c r="E32" s="3">
         <v>1500</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>2400</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>100</v>
       </c>
-      <c r="G32" s="3">
-        <v>0</v>
-      </c>
       <c r="H32" s="3">
+        <v>0</v>
+      </c>
+      <c r="I32" s="3">
         <v>-100</v>
       </c>
-      <c r="I32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J32" s="3" t="s">
         <v>3</v>
       </c>
@@ -1606,46 +1676,52 @@
       <c r="N32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-7400</v>
+      </c>
+      <c r="E33" s="3">
         <v>-32600</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-21200</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-3000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-2100</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-14200</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-1700</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-900</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-1900</v>
       </c>
-      <c r="L33" s="3">
-        <v>0</v>
-      </c>
-      <c r="M33" s="3" t="s">
-        <v>3</v>
+      <c r="M33" s="3">
+        <v>0</v>
       </c>
       <c r="N33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1682,89 +1758,98 @@
       <c r="N34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-7400</v>
+      </c>
+      <c r="E35" s="3">
         <v>-32600</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-21200</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-3000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-2100</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-14200</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-1700</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-900</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-1900</v>
       </c>
-      <c r="L35" s="3">
-        <v>0</v>
-      </c>
-      <c r="M35" s="3" t="s">
-        <v>3</v>
+      <c r="M35" s="3">
+        <v>0</v>
       </c>
       <c r="N35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44377</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44286</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44196</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44012</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43921</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43646</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43555</v>
       </c>
-      <c r="M38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="N38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1779,8 +1864,9 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O39" s="3"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1795,26 +1881,27 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O40" s="3"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>5900</v>
+      </c>
+      <c r="E41" s="3">
         <v>10300</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>37600</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>18800</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>15500</v>
       </c>
-      <c r="H41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I41" s="3" t="s">
         <v>3</v>
       </c>
@@ -1833,8 +1920,11 @@
       <c r="N41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1871,26 +1961,29 @@
       <c r="N42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>4600</v>
+      </c>
+      <c r="E43" s="3">
         <v>5400</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>5600</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>1900</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>1200</v>
       </c>
-      <c r="H43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I43" s="3" t="s">
         <v>3</v>
       </c>
@@ -1909,26 +2002,29 @@
       <c r="N43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>10400</v>
+      </c>
+      <c r="E44" s="3">
         <v>9300</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>3000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>1000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>500</v>
       </c>
-      <c r="H44" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I44" s="3" t="s">
         <v>3</v>
       </c>
@@ -1947,26 +2043,29 @@
       <c r="N44" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O44" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E45" s="3">
         <v>2200</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>1700</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>2500</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>300</v>
       </c>
-      <c r="H45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I45" s="3" t="s">
         <v>3</v>
       </c>
@@ -1985,26 +2084,29 @@
       <c r="N45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>22900</v>
+      </c>
+      <c r="E46" s="3">
         <v>27200</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>47900</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>24100</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>17600</v>
       </c>
-      <c r="H46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2023,23 +2125,26 @@
       <c r="N46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>800</v>
+      </c>
+      <c r="E47" s="3">
         <v>1300</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>2700</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>2400</v>
       </c>
-      <c r="G47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H47" s="3" t="s">
         <v>3</v>
       </c>
@@ -2055,32 +2160,35 @@
       <c r="L47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M47" s="3">
-        <v>0</v>
+      <c r="M47" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>7600</v>
+      </c>
+      <c r="E48" s="3">
         <v>8200</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>5000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>2700</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>700</v>
       </c>
-      <c r="H48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2099,25 +2207,28 @@
       <c r="N48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>41500</v>
+      </c>
+      <c r="E49" s="3">
         <v>42100</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>29800</v>
-      </c>
-      <c r="F49" s="3">
-        <v>1100</v>
       </c>
       <c r="G49" s="3">
         <v>1100</v>
       </c>
-      <c r="H49" s="3" t="s">
-        <v>3</v>
+      <c r="H49" s="3">
+        <v>1100</v>
       </c>
       <c r="I49" s="3" t="s">
         <v>3</v>
@@ -2137,8 +2248,11 @@
       <c r="N49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2175,8 +2289,11 @@
       <c r="N50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2213,8 +2330,11 @@
       <c r="N51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2222,11 +2342,11 @@
         <v>300</v>
       </c>
       <c r="E52" s="3">
+        <v>300</v>
+      </c>
+      <c r="F52" s="3">
         <v>100</v>
       </c>
-      <c r="F52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2239,8 +2359,8 @@
       <c r="J52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K52" s="3">
-        <v>0</v>
+      <c r="K52" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L52" s="3">
         <v>0</v>
@@ -2251,8 +2371,11 @@
       <c r="N52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2289,26 +2412,29 @@
       <c r="N53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>73100</v>
+      </c>
+      <c r="E54" s="3">
         <v>79100</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>85500</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>30300</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>19500</v>
       </c>
-      <c r="H54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2327,8 +2453,11 @@
       <c r="N54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2343,8 +2472,9 @@
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
-    </row>
-    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O55" s="3"/>
+    </row>
+    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2359,26 +2489,27 @@
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
-    </row>
-    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O56" s="3"/>
+    </row>
+    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>7600</v>
+      </c>
+      <c r="E57" s="3">
         <v>7400</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>5600</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>5700</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>1800</v>
       </c>
-      <c r="H57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2397,8 +2528,11 @@
       <c r="N57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2406,17 +2540,17 @@
         <v>1100</v>
       </c>
       <c r="E58" s="3">
+        <v>1100</v>
+      </c>
+      <c r="F58" s="3">
         <v>400</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>100</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>300</v>
       </c>
-      <c r="H58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I58" s="3" t="s">
         <v>3</v>
       </c>
@@ -2435,8 +2569,11 @@
       <c r="N58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -2444,17 +2581,17 @@
         <v>0</v>
       </c>
       <c r="E59" s="3">
+        <v>0</v>
+      </c>
+      <c r="F59" s="3">
         <v>100</v>
       </c>
-      <c r="F59" s="3">
-        <v>0</v>
-      </c>
       <c r="G59" s="3">
+        <v>0</v>
+      </c>
+      <c r="H59" s="3">
         <v>600</v>
       </c>
-      <c r="H59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2473,26 +2610,29 @@
       <c r="N59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>8700</v>
+      </c>
+      <c r="E60" s="3">
         <v>8600</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>6100</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>5900</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>2700</v>
       </c>
-      <c r="H60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2511,26 +2651,29 @@
       <c r="N60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>2200</v>
+      </c>
+      <c r="E61" s="3">
         <v>2600</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>900</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>200</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>300</v>
       </c>
-      <c r="H61" s="3">
-        <v>0</v>
-      </c>
       <c r="I61" s="3">
         <v>0</v>
       </c>
@@ -2549,25 +2692,28 @@
       <c r="N61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>8100</v>
+      </c>
+      <c r="E62" s="3">
         <v>5500</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>1500</v>
-      </c>
-      <c r="F62" s="3">
-        <v>100</v>
       </c>
       <c r="G62" s="3">
         <v>100</v>
       </c>
-      <c r="H62" s="3" t="s">
-        <v>3</v>
+      <c r="H62" s="3">
+        <v>100</v>
       </c>
       <c r="I62" s="3" t="s">
         <v>3</v>
@@ -2587,8 +2733,11 @@
       <c r="N62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2625,8 +2774,11 @@
       <c r="N63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2663,8 +2815,11 @@
       <c r="N64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2701,26 +2856,29 @@
       <c r="N65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>18600</v>
+      </c>
+      <c r="E66" s="3">
         <v>16300</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>8300</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>6100</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>3100</v>
       </c>
-      <c r="H66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I66" s="3" t="s">
         <v>3</v>
       </c>
@@ -2739,8 +2897,11 @@
       <c r="N66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2755,8 +2916,9 @@
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O67" s="3"/>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2793,8 +2955,11 @@
       <c r="N68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2831,8 +2996,11 @@
       <c r="N69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2869,8 +3037,11 @@
       <c r="N70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2907,26 +3078,29 @@
       <c r="N71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-62900</v>
+      </c>
+      <c r="E72" s="3">
         <v>-54900</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-24200</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-14600</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-10900</v>
       </c>
-      <c r="H72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I72" s="3" t="s">
         <v>3</v>
       </c>
@@ -2945,8 +3119,11 @@
       <c r="N72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2983,8 +3160,11 @@
       <c r="N73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3021,8 +3201,11 @@
       <c r="N74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3059,26 +3242,29 @@
       <c r="N75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>54500</v>
+      </c>
+      <c r="E76" s="3">
         <v>62800</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>77200</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>24200</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>16400</v>
       </c>
-      <c r="H76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I76" s="3" t="s">
         <v>3</v>
       </c>
@@ -3097,8 +3283,11 @@
       <c r="N76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3135,89 +3324,98 @@
       <c r="N77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44377</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44286</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44196</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44012</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43921</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43646</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43555</v>
       </c>
-      <c r="M80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="N80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-7400</v>
+      </c>
+      <c r="E81" s="3">
         <v>-32600</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-21200</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-3000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-2100</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-14200</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-1700</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-900</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-1900</v>
       </c>
-      <c r="L81" s="3">
-        <v>0</v>
-      </c>
-      <c r="M81" s="3" t="s">
-        <v>3</v>
+      <c r="M81" s="3">
+        <v>0</v>
       </c>
       <c r="N81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3232,32 +3430,33 @@
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
-    </row>
-    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O82" s="3"/>
+    </row>
+    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E83" s="3">
         <v>1700</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>800</v>
       </c>
-      <c r="F83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G83" s="3" t="s">
         <v>3</v>
       </c>
       <c r="H83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I83" s="3">
+      <c r="I83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J83" s="3">
         <v>100</v>
       </c>
-      <c r="J83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K83" s="3" t="s">
         <v>3</v>
       </c>
@@ -3270,8 +3469,11 @@
       <c r="N83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3308,8 +3510,11 @@
       <c r="N84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3346,8 +3551,11 @@
       <c r="N85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3384,8 +3592,11 @@
       <c r="N86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3422,8 +3633,11 @@
       <c r="N87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3460,32 +3674,35 @@
       <c r="N88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="E89" s="3">
         <v>-10500</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-20600</v>
       </c>
-      <c r="F89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G89" s="3" t="s">
         <v>3</v>
       </c>
       <c r="H89" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I89" s="3">
+      <c r="I89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J89" s="3">
         <v>-2100</v>
       </c>
-      <c r="J89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K89" s="3" t="s">
         <v>3</v>
       </c>
@@ -3498,8 +3715,11 @@
       <c r="N89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3514,32 +3734,33 @@
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
-    </row>
-    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O90" s="3"/>
+    </row>
+    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E91" s="3">
         <v>-700</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-4000</v>
       </c>
-      <c r="F91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G91" s="3" t="s">
         <v>3</v>
       </c>
       <c r="H91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I91" s="3">
+      <c r="I91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J91" s="3">
         <v>-100</v>
       </c>
-      <c r="J91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K91" s="3" t="s">
         <v>3</v>
       </c>
@@ -3552,8 +3773,11 @@
       <c r="N91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3590,8 +3814,11 @@
       <c r="N92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3628,32 +3855,35 @@
       <c r="N93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E94" s="3">
         <v>-16200</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-14600</v>
       </c>
-      <c r="F94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G94" s="3" t="s">
         <v>3</v>
       </c>
       <c r="H94" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I94" s="3">
+      <c r="I94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J94" s="3">
         <v>-1600</v>
       </c>
-      <c r="J94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K94" s="3" t="s">
         <v>3</v>
       </c>
@@ -3666,8 +3896,11 @@
       <c r="N94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3682,8 +3915,9 @@
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
-    </row>
-    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O95" s="3"/>
+    </row>
+    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3720,8 +3954,11 @@
       <c r="N96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3758,8 +3995,11 @@
       <c r="N97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3796,8 +4036,11 @@
       <c r="N98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3834,32 +4077,35 @@
       <c r="N99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E100" s="3">
         <v>-500</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>58100</v>
       </c>
-      <c r="F100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G100" s="3" t="s">
         <v>3</v>
       </c>
       <c r="H100" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I100" s="3">
+      <c r="I100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J100" s="3">
         <v>10200</v>
       </c>
-      <c r="J100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K100" s="3" t="s">
         <v>3</v>
       </c>
@@ -3872,32 +4118,35 @@
       <c r="N100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E101" s="3">
         <v>-200</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-800</v>
       </c>
-      <c r="F101" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G101" s="3" t="s">
         <v>3</v>
       </c>
       <c r="H101" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I101" s="3">
+      <c r="I101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J101" s="3">
         <v>100</v>
       </c>
-      <c r="J101" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K101" s="3" t="s">
         <v>3</v>
       </c>
@@ -3910,32 +4159,35 @@
       <c r="N101" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O101" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-4400</v>
+      </c>
+      <c r="E102" s="3">
         <v>-27300</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>22100</v>
       </c>
-      <c r="F102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G102" s="3" t="s">
         <v>3</v>
       </c>
       <c r="H102" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I102" s="3">
+      <c r="I102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J102" s="3">
         <v>6600</v>
       </c>
-      <c r="J102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K102" s="3" t="s">
         <v>3</v>
       </c>
@@ -3946,6 +4198,9 @@
         <v>3</v>
       </c>
       <c r="N102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/FLGC_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/FLGC_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:O102"/>
+  <dimension ref="A5:P102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,96 +665,99 @@
     <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
         <v>44834</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44742</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44561</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44377</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44286</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44196</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44012</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43921</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43646</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43555</v>
       </c>
-      <c r="N7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="O7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>11500</v>
+      </c>
+      <c r="E8" s="3">
         <v>10800</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>14900</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>9000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>1200</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>1000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>100</v>
       </c>
-      <c r="J8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K8" s="3" t="s">
         <v>3</v>
       </c>
@@ -770,31 +773,34 @@
       <c r="O8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>8400</v>
+      </c>
+      <c r="E9" s="3">
         <v>5900</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>8400</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>6600</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>700</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>400</v>
       </c>
-      <c r="I9" s="3">
-        <v>0</v>
-      </c>
-      <c r="J9" s="3" t="s">
-        <v>3</v>
+      <c r="J9" s="3">
+        <v>0</v>
       </c>
       <c r="K9" s="3" t="s">
         <v>3</v>
@@ -811,32 +817,35 @@
       <c r="O9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>3100</v>
+      </c>
+      <c r="E10" s="3">
         <v>4900</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>6500</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>2400</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>500</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>600</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>100</v>
       </c>
-      <c r="J10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K10" s="3" t="s">
         <v>3</v>
       </c>
@@ -852,8 +861,11 @@
       <c r="O10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -869,37 +881,38 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D12" s="3">
+      <c r="D12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E12" s="3">
         <v>200</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>400</v>
-      </c>
-      <c r="F12" s="3">
-        <v>100</v>
       </c>
       <c r="G12" s="3">
         <v>100</v>
       </c>
       <c r="H12" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I12" s="3">
+        <v>0</v>
+      </c>
+      <c r="J12" s="3">
         <v>100</v>
       </c>
-      <c r="J12" s="3">
-        <v>0</v>
-      </c>
       <c r="K12" s="3">
         <v>0</v>
       </c>
-      <c r="L12" s="3" t="s">
-        <v>3</v>
+      <c r="L12" s="3">
+        <v>0</v>
       </c>
       <c r="M12" s="3" t="s">
         <v>3</v>
@@ -910,8 +923,11 @@
       <c r="O12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -951,32 +967,35 @@
       <c r="O13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>10400</v>
+      </c>
+      <c r="E14" s="3">
         <v>-200</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>16000</v>
       </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>3</v>
+      <c r="G14" s="3">
+        <v>0</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I14" s="3">
+      <c r="I14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J14" s="3">
         <v>1900</v>
       </c>
-      <c r="J14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K14" s="3" t="s">
         <v>3</v>
       </c>
@@ -992,31 +1011,34 @@
       <c r="O14" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P14" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="3">
+      <c r="D15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E15" s="3">
         <v>1000</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>1700</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>800</v>
       </c>
-      <c r="G15" s="3">
-        <v>0</v>
-      </c>
       <c r="H15" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I15" s="3">
         <v>100</v>
       </c>
       <c r="J15" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K15" s="3">
         <v>0</v>
@@ -1027,14 +1049,17 @@
       <c r="M15" s="3">
         <v>0</v>
       </c>
-      <c r="N15" s="3" t="s">
-        <v>3</v>
+      <c r="N15" s="3">
+        <v>0</v>
       </c>
       <c r="O15" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P15" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1047,73 +1072,77 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
-    </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>28700</v>
+      </c>
+      <c r="E17" s="3">
         <v>15800</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>46000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>27900</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>4000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>3100</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>14500</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>1700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>900</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1900</v>
       </c>
-      <c r="M17" s="3">
-        <v>0</v>
-      </c>
-      <c r="N17" s="3" t="s">
-        <v>3</v>
+      <c r="N17" s="3">
+        <v>0</v>
       </c>
       <c r="O17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-17200</v>
+      </c>
+      <c r="E18" s="3">
         <v>-5000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-31100</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-18900</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-2800</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-2100</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-14400</v>
       </c>
-      <c r="J18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1129,8 +1158,11 @@
       <c r="O18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1146,32 +1178,33 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
-    </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>3100</v>
+      </c>
+      <c r="E20" s="3">
         <v>-2300</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-1500</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-2400</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-100</v>
       </c>
-      <c r="H20" s="3">
-        <v>0</v>
-      </c>
       <c r="I20" s="3">
+        <v>0</v>
+      </c>
+      <c r="J20" s="3">
         <v>100</v>
       </c>
-      <c r="J20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K20" s="3" t="s">
         <v>3</v>
       </c>
@@ -1187,23 +1220,26 @@
       <c r="O20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-14100</v>
+      </c>
+      <c r="E21" s="3">
         <v>-6300</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-30900</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-20600</v>
       </c>
-      <c r="G21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1228,13 +1264,16 @@
       <c r="O21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3">
-        <v>100</v>
+      <c r="D22" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E22" s="3">
         <v>100</v>
@@ -1243,7 +1282,7 @@
         <v>100</v>
       </c>
       <c r="G22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H22" s="3">
         <v>0</v>
@@ -1263,70 +1302,76 @@
       <c r="M22" s="3">
         <v>0</v>
       </c>
-      <c r="N22" s="3" t="s">
-        <v>3</v>
+      <c r="N22" s="3">
+        <v>0</v>
       </c>
       <c r="O22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-14100</v>
+      </c>
+      <c r="E23" s="3">
         <v>-7400</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-32700</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-21500</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-3000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-2200</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-14300</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-1700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-900</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-1900</v>
       </c>
-      <c r="M23" s="3">
-        <v>0</v>
-      </c>
-      <c r="N23" s="3" t="s">
-        <v>3</v>
+      <c r="N23" s="3">
+        <v>0</v>
       </c>
       <c r="O23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>0</v>
+        <v>-1500</v>
       </c>
       <c r="E24" s="3">
         <v>0</v>
       </c>
       <c r="F24" s="3">
+        <v>0</v>
+      </c>
+      <c r="G24" s="3">
         <v>-100</v>
       </c>
-      <c r="G24" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H24" s="3" t="s">
         <v>3</v>
       </c>
@@ -1339,8 +1384,8 @@
       <c r="K24" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L24" s="3">
-        <v>0</v>
+      <c r="L24" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M24" s="3">
         <v>0</v>
@@ -1351,8 +1396,11 @@
       <c r="O24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1392,90 +1440,99 @@
       <c r="O25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-12500</v>
+      </c>
+      <c r="E26" s="3">
         <v>-7400</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-32700</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-21400</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-3000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-2200</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-14300</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-1700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-900</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-1900</v>
       </c>
-      <c r="M26" s="3">
-        <v>0</v>
-      </c>
-      <c r="N26" s="3" t="s">
-        <v>3</v>
+      <c r="N26" s="3">
+        <v>0</v>
       </c>
       <c r="O26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-12400</v>
+      </c>
+      <c r="E27" s="3">
         <v>-7400</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-32600</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-21200</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-3000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-2100</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-14200</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-1700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-900</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-1900</v>
       </c>
-      <c r="M27" s="3">
-        <v>0</v>
-      </c>
-      <c r="N27" s="3" t="s">
-        <v>3</v>
+      <c r="N27" s="3">
+        <v>0</v>
       </c>
       <c r="O27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1515,8 +1572,11 @@
       <c r="O28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1556,8 +1616,11 @@
       <c r="O29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1597,8 +1660,11 @@
       <c r="O30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1638,32 +1704,35 @@
       <c r="O31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="E32" s="3">
         <v>2300</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>1500</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>2400</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>100</v>
       </c>
-      <c r="H32" s="3">
-        <v>0</v>
-      </c>
       <c r="I32" s="3">
+        <v>0</v>
+      </c>
+      <c r="J32" s="3">
         <v>-100</v>
       </c>
-      <c r="J32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K32" s="3" t="s">
         <v>3</v>
       </c>
@@ -1679,49 +1748,55 @@
       <c r="O32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-12400</v>
+      </c>
+      <c r="E33" s="3">
         <v>-7400</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-32600</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-21200</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-3000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-2100</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-14200</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-1700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-900</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-1900</v>
       </c>
-      <c r="M33" s="3">
-        <v>0</v>
-      </c>
-      <c r="N33" s="3" t="s">
-        <v>3</v>
+      <c r="N33" s="3">
+        <v>0</v>
       </c>
       <c r="O33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1761,95 +1836,104 @@
       <c r="O34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-12400</v>
+      </c>
+      <c r="E35" s="3">
         <v>-7400</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-32600</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-21200</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-3000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-2100</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-14200</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-1700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-900</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-1900</v>
       </c>
-      <c r="M35" s="3">
-        <v>0</v>
-      </c>
-      <c r="N35" s="3" t="s">
-        <v>3</v>
+      <c r="N35" s="3">
+        <v>0</v>
       </c>
       <c r="O35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
         <v>44834</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44742</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44561</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44377</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44286</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44196</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44012</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43921</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43646</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43555</v>
       </c>
-      <c r="N38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="O38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1865,8 +1949,9 @@
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P39" s="3"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1882,29 +1967,30 @@
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P40" s="3"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>9500</v>
+      </c>
+      <c r="E41" s="3">
         <v>5900</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>10300</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>37600</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>18800</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>15500</v>
       </c>
-      <c r="I41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J41" s="3" t="s">
         <v>3</v>
       </c>
@@ -1923,8 +2009,11 @@
       <c r="O41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1964,29 +2053,32 @@
       <c r="O42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>10600</v>
+      </c>
+      <c r="E43" s="3">
         <v>4600</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>5400</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>5600</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>1900</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>1200</v>
       </c>
-      <c r="I43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2005,29 +2097,32 @@
       <c r="O43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>10100</v>
+      </c>
+      <c r="E44" s="3">
         <v>10400</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>9300</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>3000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>1000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>500</v>
       </c>
-      <c r="I44" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J44" s="3" t="s">
         <v>3</v>
       </c>
@@ -2046,29 +2141,32 @@
       <c r="O44" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P44" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E45" s="3">
         <v>2000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>2200</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>1700</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>2500</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>300</v>
       </c>
-      <c r="I45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2087,29 +2185,32 @@
       <c r="O45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>31200</v>
+      </c>
+      <c r="E46" s="3">
         <v>22900</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>27200</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>47900</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>24100</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>17600</v>
       </c>
-      <c r="I46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2128,26 +2229,29 @@
       <c r="O46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>700</v>
+      </c>
+      <c r="E47" s="3">
         <v>800</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>1300</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>2700</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>2400</v>
       </c>
-      <c r="H47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I47" s="3" t="s">
         <v>3</v>
       </c>
@@ -2163,35 +2267,38 @@
       <c r="M47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N47" s="3">
-        <v>0</v>
+      <c r="N47" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>7300</v>
+      </c>
+      <c r="E48" s="3">
         <v>7600</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>8200</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>5000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>2700</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>700</v>
       </c>
-      <c r="I48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2210,8 +2317,11 @@
       <c r="O48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2219,19 +2329,19 @@
         <v>41500</v>
       </c>
       <c r="E49" s="3">
+        <v>41500</v>
+      </c>
+      <c r="F49" s="3">
         <v>42100</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>29800</v>
-      </c>
-      <c r="G49" s="3">
-        <v>1100</v>
       </c>
       <c r="H49" s="3">
         <v>1100</v>
       </c>
-      <c r="I49" s="3" t="s">
-        <v>3</v>
+      <c r="I49" s="3">
+        <v>1100</v>
       </c>
       <c r="J49" s="3" t="s">
         <v>3</v>
@@ -2251,8 +2361,11 @@
       <c r="O49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2292,8 +2405,11 @@
       <c r="O50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2333,8 +2449,11 @@
       <c r="O51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2345,11 +2464,11 @@
         <v>300</v>
       </c>
       <c r="F52" s="3">
+        <v>300</v>
+      </c>
+      <c r="G52" s="3">
         <v>100</v>
       </c>
-      <c r="G52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2362,8 +2481,8 @@
       <c r="K52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L52" s="3">
-        <v>0</v>
+      <c r="L52" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M52" s="3">
         <v>0</v>
@@ -2374,8 +2493,11 @@
       <c r="O52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2415,29 +2537,32 @@
       <c r="O53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>81000</v>
+      </c>
+      <c r="E54" s="3">
         <v>73100</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>79100</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>85500</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>30300</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>19500</v>
       </c>
-      <c r="I54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2456,8 +2581,11 @@
       <c r="O54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2473,8 +2601,9 @@
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
-    </row>
-    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P55" s="3"/>
+    </row>
+    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2490,29 +2619,30 @@
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
-    </row>
-    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P56" s="3"/>
+    </row>
+    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>7700</v>
+      </c>
+      <c r="E57" s="3">
         <v>7600</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>7400</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>5600</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>5700</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>1800</v>
       </c>
-      <c r="I57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2531,29 +2661,32 @@
       <c r="O57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>1100</v>
+        <v>2300</v>
       </c>
       <c r="E58" s="3">
         <v>1100</v>
       </c>
       <c r="F58" s="3">
+        <v>1100</v>
+      </c>
+      <c r="G58" s="3">
         <v>400</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>100</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>300</v>
       </c>
-      <c r="I58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J58" s="3" t="s">
         <v>3</v>
       </c>
@@ -2572,29 +2705,32 @@
       <c r="O58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>0</v>
+        <v>7400</v>
       </c>
       <c r="E59" s="3">
         <v>0</v>
       </c>
       <c r="F59" s="3">
+        <v>0</v>
+      </c>
+      <c r="G59" s="3">
         <v>100</v>
       </c>
-      <c r="G59" s="3">
-        <v>0</v>
-      </c>
       <c r="H59" s="3">
+        <v>0</v>
+      </c>
+      <c r="I59" s="3">
         <v>600</v>
       </c>
-      <c r="I59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2613,29 +2749,32 @@
       <c r="O59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>17400</v>
+      </c>
+      <c r="E60" s="3">
         <v>8700</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>8600</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>6100</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>5900</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>2700</v>
       </c>
-      <c r="I60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2654,29 +2793,32 @@
       <c r="O60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E61" s="3">
         <v>2200</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>2600</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>900</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>200</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>300</v>
       </c>
-      <c r="I61" s="3">
-        <v>0</v>
-      </c>
       <c r="J61" s="3">
         <v>0</v>
       </c>
@@ -2695,28 +2837,31 @@
       <c r="O61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>5300</v>
+      </c>
+      <c r="E62" s="3">
         <v>8100</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>5500</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>1500</v>
-      </c>
-      <c r="G62" s="3">
-        <v>100</v>
       </c>
       <c r="H62" s="3">
         <v>100</v>
       </c>
-      <c r="I62" s="3" t="s">
-        <v>3</v>
+      <c r="I62" s="3">
+        <v>100</v>
       </c>
       <c r="J62" s="3" t="s">
         <v>3</v>
@@ -2736,8 +2881,11 @@
       <c r="O62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2777,8 +2925,11 @@
       <c r="O63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2818,8 +2969,11 @@
       <c r="O64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2859,29 +3013,32 @@
       <c r="O65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>24200</v>
+      </c>
+      <c r="E66" s="3">
         <v>18600</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>16300</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>8300</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>6100</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>3100</v>
       </c>
-      <c r="I66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J66" s="3" t="s">
         <v>3</v>
       </c>
@@ -2900,8 +3057,11 @@
       <c r="O66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2917,8 +3077,9 @@
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
-    </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P67" s="3"/>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2958,8 +3119,11 @@
       <c r="O68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2999,8 +3163,11 @@
       <c r="O69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3040,8 +3207,11 @@
       <c r="O70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3081,29 +3251,32 @@
       <c r="O71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-90900</v>
+      </c>
+      <c r="E72" s="3">
         <v>-62900</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-54900</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-24200</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-14600</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-10900</v>
       </c>
-      <c r="I72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J72" s="3" t="s">
         <v>3</v>
       </c>
@@ -3122,8 +3295,11 @@
       <c r="O72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3163,8 +3339,11 @@
       <c r="O73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3204,8 +3383,11 @@
       <c r="O74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3245,29 +3427,32 @@
       <c r="O75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>56800</v>
+      </c>
+      <c r="E76" s="3">
         <v>54500</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>62800</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>77200</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>24200</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>16400</v>
       </c>
-      <c r="I76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J76" s="3" t="s">
         <v>3</v>
       </c>
@@ -3286,8 +3471,11 @@
       <c r="O76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3327,95 +3515,104 @@
       <c r="O77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
         <v>44834</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44742</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44561</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44377</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44286</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44196</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44012</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43921</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43646</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43555</v>
       </c>
-      <c r="N80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="O80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-12400</v>
+      </c>
+      <c r="E81" s="3">
         <v>-7400</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-32600</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-21200</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-3000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-2100</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-14200</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-1700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-900</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-1900</v>
       </c>
-      <c r="M81" s="3">
-        <v>0</v>
-      </c>
-      <c r="N81" s="3" t="s">
-        <v>3</v>
+      <c r="N81" s="3">
+        <v>0</v>
       </c>
       <c r="O81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3431,35 +3628,36 @@
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
-    </row>
-    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P82" s="3"/>
+    </row>
+    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E83" s="3">
         <v>1000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>1700</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>800</v>
       </c>
-      <c r="G83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H83" s="3" t="s">
         <v>3</v>
       </c>
       <c r="I83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="J83" s="3">
+      <c r="J83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K83" s="3">
         <v>100</v>
       </c>
-      <c r="K83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L83" s="3" t="s">
         <v>3</v>
       </c>
@@ -3472,8 +3670,11 @@
       <c r="O83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3513,8 +3714,11 @@
       <c r="O84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3554,8 +3758,11 @@
       <c r="O85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3595,8 +3802,11 @@
       <c r="O86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3636,8 +3846,11 @@
       <c r="O87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3677,35 +3890,38 @@
       <c r="O88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="E89" s="3">
         <v>-3300</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-10500</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-20600</v>
       </c>
-      <c r="G89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H89" s="3" t="s">
         <v>3</v>
       </c>
       <c r="I89" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="J89" s="3">
+      <c r="J89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K89" s="3">
         <v>-2100</v>
       </c>
-      <c r="K89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L89" s="3" t="s">
         <v>3</v>
       </c>
@@ -3718,8 +3934,11 @@
       <c r="O89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3735,35 +3954,36 @@
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
-    </row>
-    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P90" s="3"/>
+    </row>
+    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E91" s="3">
         <v>-200</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-700</v>
       </c>
-      <c r="F91" s="3">
-        <v>-4000</v>
-      </c>
-      <c r="G91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I91" s="3" t="s">
-        <v>3</v>
+      <c r="G91" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="H91" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="I91" s="3">
+        <v>-200</v>
       </c>
       <c r="J91" s="3">
+        <v>0</v>
+      </c>
+      <c r="K91" s="3">
         <v>-100</v>
       </c>
-      <c r="K91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L91" s="3" t="s">
         <v>3</v>
       </c>
@@ -3776,8 +3996,11 @@
       <c r="O91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3817,8 +4040,11 @@
       <c r="O92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3858,35 +4084,38 @@
       <c r="O93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>500</v>
+      </c>
+      <c r="E94" s="3">
         <v>-200</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-16200</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-14600</v>
       </c>
-      <c r="G94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H94" s="3" t="s">
         <v>3</v>
       </c>
       <c r="I94" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="J94" s="3">
+      <c r="J94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K94" s="3">
         <v>-1600</v>
       </c>
-      <c r="K94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L94" s="3" t="s">
         <v>3</v>
       </c>
@@ -3899,8 +4128,11 @@
       <c r="O94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3916,8 +4148,9 @@
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
-    </row>
-    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P95" s="3"/>
+    </row>
+    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3957,8 +4190,11 @@
       <c r="O96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3998,8 +4234,11 @@
       <c r="O97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4039,8 +4278,11 @@
       <c r="O98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4080,35 +4322,38 @@
       <c r="O99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>5300</v>
+      </c>
+      <c r="E100" s="3">
         <v>-400</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-500</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>58100</v>
       </c>
-      <c r="G100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H100" s="3" t="s">
         <v>3</v>
       </c>
       <c r="I100" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="J100" s="3">
+      <c r="J100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K100" s="3">
         <v>10200</v>
       </c>
-      <c r="K100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L100" s="3" t="s">
         <v>3</v>
       </c>
@@ -4121,35 +4366,38 @@
       <c r="O100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E101" s="3">
         <v>-400</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-200</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-800</v>
       </c>
-      <c r="G101" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H101" s="3" t="s">
         <v>3</v>
       </c>
       <c r="I101" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="J101" s="3">
+      <c r="J101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K101" s="3">
         <v>100</v>
       </c>
-      <c r="K101" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L101" s="3" t="s">
         <v>3</v>
       </c>
@@ -4162,35 +4410,38 @@
       <c r="O101" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P101" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>3600</v>
+      </c>
+      <c r="E102" s="3">
         <v>-4400</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-27300</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>22100</v>
       </c>
-      <c r="G102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H102" s="3" t="s">
         <v>3</v>
       </c>
       <c r="I102" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="J102" s="3">
+      <c r="J102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K102" s="3">
         <v>6600</v>
       </c>
-      <c r="K102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L102" s="3" t="s">
         <v>3</v>
       </c>
@@ -4201,6 +4452,9 @@
         <v>3</v>
       </c>
       <c r="O102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/FLGC_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/FLGC_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="92">
   <si>
     <t>FLGC</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,105 +665,113 @@
     <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E7" s="2">
+        <v>45016</v>
+      </c>
+      <c r="F7" s="2">
         <v>44926</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44834</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44742</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44561</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44377</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44286</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44196</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>44012</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43921</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43646</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43555</v>
       </c>
-      <c r="O7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="P7" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="R7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>21500</v>
+      </c>
+      <c r="E8" s="3">
+        <v>20100</v>
+      </c>
+      <c r="F8" s="3">
         <v>11500</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>10800</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>14900</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>9000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>1200</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>1000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>100</v>
       </c>
-      <c r="K8" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M8" s="3" t="s">
         <v>3</v>
       </c>
@@ -776,37 +784,43 @@
       <c r="P8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>8400</v>
+        <v>17500</v>
       </c>
       <c r="E9" s="3">
-        <v>5900</v>
+        <v>14600</v>
       </c>
       <c r="F9" s="3">
         <v>8400</v>
       </c>
       <c r="G9" s="3">
+        <v>5900</v>
+      </c>
+      <c r="H9" s="3">
+        <v>8400</v>
+      </c>
+      <c r="I9" s="3">
         <v>6600</v>
       </c>
-      <c r="H9" s="3">
+      <c r="J9" s="3">
         <v>700</v>
       </c>
-      <c r="I9" s="3">
+      <c r="K9" s="3">
         <v>400</v>
       </c>
-      <c r="J9" s="3">
-        <v>0</v>
-      </c>
-      <c r="K9" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L9" s="3" t="s">
-        <v>3</v>
+      <c r="L9" s="3">
+        <v>0</v>
       </c>
       <c r="M9" s="3" t="s">
         <v>3</v>
@@ -820,38 +834,44 @@
       <c r="P9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>4000</v>
+      </c>
+      <c r="E10" s="3">
+        <v>5500</v>
+      </c>
+      <c r="F10" s="3">
         <v>3100</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
         <v>4900</v>
       </c>
-      <c r="F10" s="3">
+      <c r="H10" s="3">
         <v>6500</v>
       </c>
-      <c r="G10" s="3">
+      <c r="I10" s="3">
         <v>2400</v>
       </c>
-      <c r="H10" s="3">
+      <c r="J10" s="3">
         <v>500</v>
       </c>
-      <c r="I10" s="3">
+      <c r="K10" s="3">
         <v>600</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>100</v>
       </c>
-      <c r="K10" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M10" s="3" t="s">
         <v>3</v>
       </c>
@@ -864,8 +884,14 @@
       <c r="P10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -882,28 +908,30 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D12" s="3" t="s">
-        <v>3</v>
+      <c r="D12" s="3">
+        <v>0</v>
       </c>
       <c r="E12" s="3">
+        <v>0</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G12" s="3">
         <v>200</v>
       </c>
-      <c r="F12" s="3">
+      <c r="H12" s="3">
         <v>400</v>
       </c>
-      <c r="G12" s="3">
+      <c r="I12" s="3">
         <v>100</v>
-      </c>
-      <c r="H12" s="3">
-        <v>100</v>
-      </c>
-      <c r="I12" s="3">
-        <v>0</v>
       </c>
       <c r="J12" s="3">
         <v>100</v>
@@ -912,13 +940,13 @@
         <v>0</v>
       </c>
       <c r="L12" s="3">
-        <v>0</v>
-      </c>
-      <c r="M12" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N12" s="3" t="s">
-        <v>3</v>
+        <v>100</v>
+      </c>
+      <c r="M12" s="3">
+        <v>0</v>
+      </c>
+      <c r="N12" s="3">
+        <v>0</v>
       </c>
       <c r="O12" s="3" t="s">
         <v>3</v>
@@ -926,8 +954,14 @@
       <c r="P12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -970,38 +1004,44 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
+      <c r="D14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F14" s="3">
         <v>10400</v>
       </c>
-      <c r="E14" s="3">
+      <c r="G14" s="3">
         <v>-200</v>
       </c>
-      <c r="F14" s="3">
+      <c r="H14" s="3">
         <v>16000</v>
       </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J14" s="3">
+      <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L14" s="3">
         <v>1900</v>
       </c>
-      <c r="K14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M14" s="3" t="s">
         <v>3</v>
       </c>
@@ -1014,52 +1054,64 @@
       <c r="P14" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R14" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="3" t="s">
-        <v>3</v>
+      <c r="D15" s="3">
+        <v>900</v>
       </c>
       <c r="E15" s="3">
+        <v>900</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G15" s="3">
         <v>1000</v>
       </c>
-      <c r="F15" s="3">
+      <c r="H15" s="3">
         <v>1700</v>
       </c>
-      <c r="G15" s="3">
-        <v>800</v>
-      </c>
-      <c r="H15" s="3">
-        <v>0</v>
-      </c>
       <c r="I15" s="3">
+        <v>500</v>
+      </c>
+      <c r="J15" s="3">
+        <v>0</v>
+      </c>
+      <c r="K15" s="3">
         <v>100</v>
       </c>
-      <c r="J15" s="3">
+      <c r="L15" s="3">
         <v>100</v>
       </c>
-      <c r="K15" s="3">
-        <v>0</v>
-      </c>
-      <c r="L15" s="3">
-        <v>0</v>
-      </c>
       <c r="M15" s="3">
         <v>0</v>
       </c>
       <c r="N15" s="3">
         <v>0</v>
       </c>
-      <c r="O15" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P15" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="O15" s="3">
+        <v>0</v>
+      </c>
+      <c r="P15" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R15" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1073,82 +1125,90 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3">
+      <c r="D17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E17" s="3">
+        <v>23200</v>
+      </c>
+      <c r="F17" s="3">
         <v>28700</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>15800</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>46000</v>
       </c>
-      <c r="G17" s="3">
-        <v>27900</v>
-      </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
+        <v>28000</v>
+      </c>
+      <c r="J17" s="3">
         <v>4000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>3100</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>14500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>1700</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>900</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>1900</v>
       </c>
-      <c r="N17" s="3">
-        <v>0</v>
-      </c>
-      <c r="O17" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P17" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P17" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3">
+      <c r="D18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E18" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="F18" s="3">
         <v>-17200</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>-5000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>-31100</v>
       </c>
-      <c r="G18" s="3">
-        <v>-18900</v>
-      </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
+        <v>-19000</v>
+      </c>
+      <c r="J18" s="3">
         <v>-2800</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>-2100</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>-14400</v>
       </c>
-      <c r="K18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1161,8 +1221,14 @@
       <c r="P18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1179,38 +1245,40 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3">
+      <c r="D20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E20" s="3">
+        <v>-900</v>
+      </c>
+      <c r="F20" s="3">
         <v>3100</v>
       </c>
-      <c r="E20" s="3">
+      <c r="G20" s="3">
         <v>-2300</v>
       </c>
-      <c r="F20" s="3">
+      <c r="H20" s="3">
         <v>-1500</v>
       </c>
-      <c r="G20" s="3">
+      <c r="I20" s="3">
         <v>-2400</v>
       </c>
-      <c r="H20" s="3">
+      <c r="J20" s="3">
         <v>-100</v>
       </c>
-      <c r="I20" s="3">
-        <v>0</v>
-      </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
+        <v>0</v>
+      </c>
+      <c r="L20" s="3">
         <v>100</v>
       </c>
-      <c r="K20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M20" s="3" t="s">
         <v>3</v>
       </c>
@@ -1223,28 +1291,34 @@
       <c r="P20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3">
+      <c r="D21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E21" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="F21" s="3">
         <v>-14100</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>-6300</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>-30900</v>
       </c>
-      <c r="G21" s="3">
-        <v>-20600</v>
-      </c>
-      <c r="H21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I21" s="3" t="s">
-        <v>3</v>
+      <c r="I21" s="3">
+        <v>-20900</v>
       </c>
       <c r="J21" s="3" t="s">
         <v>3</v>
@@ -1267,28 +1341,34 @@
       <c r="P21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E22" s="3">
-        <v>100</v>
-      </c>
-      <c r="F22" s="3">
-        <v>100</v>
+      <c r="E22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="G22" s="3">
         <v>100</v>
       </c>
       <c r="H22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J22" s="3">
         <v>0</v>
@@ -1305,79 +1385,91 @@
       <c r="N22" s="3">
         <v>0</v>
       </c>
-      <c r="O22" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P22" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="O22" s="3">
+        <v>0</v>
+      </c>
+      <c r="P22" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="3">
+      <c r="D23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-4000</v>
+      </c>
+      <c r="F23" s="3">
         <v>-14100</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>-7400</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>-32700</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>-21500</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>-3000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>-2200</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-14300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-1700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-900</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>-1900</v>
       </c>
-      <c r="N23" s="3">
-        <v>0</v>
-      </c>
-      <c r="O23" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P23" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P23" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D24" s="3">
+      <c r="D24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E24" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F24" s="3">
         <v>-1500</v>
       </c>
-      <c r="E24" s="3">
-        <v>0</v>
-      </c>
-      <c r="F24" s="3">
-        <v>0</v>
-      </c>
       <c r="G24" s="3">
+        <v>0</v>
+      </c>
+      <c r="H24" s="3">
+        <v>0</v>
+      </c>
+      <c r="I24" s="3">
         <v>-100</v>
       </c>
-      <c r="H24" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I24" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J24" s="3" t="s">
         <v>3</v>
       </c>
@@ -1387,11 +1479,11 @@
       <c r="L24" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M24" s="3">
-        <v>0</v>
-      </c>
-      <c r="N24" s="3">
-        <v>0</v>
+      <c r="M24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N24" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O24" s="3">
         <v>0</v>
@@ -1399,8 +1491,14 @@
       <c r="P24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q24" s="3">
+        <v>0</v>
+      </c>
+      <c r="R24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1443,96 +1541,114 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3">
+      <c r="D26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-3900</v>
+      </c>
+      <c r="F26" s="3">
         <v>-12500</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>-7400</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>-32700</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>-21400</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>-3000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>-2200</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-14300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-1700</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>-900</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>-1900</v>
       </c>
-      <c r="N26" s="3">
-        <v>0</v>
-      </c>
-      <c r="O26" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P26" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P26" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3">
+      <c r="D27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-3900</v>
+      </c>
+      <c r="F27" s="3">
         <v>-12400</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>-7400</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>-32600</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>-21200</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>-3000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>-2100</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-14200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-1700</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>-900</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>-1900</v>
       </c>
-      <c r="N27" s="3">
-        <v>0</v>
-      </c>
-      <c r="O27" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P27" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P27" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1575,8 +1691,14 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1619,8 +1741,14 @@
       <c r="P29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1663,8 +1791,14 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1707,38 +1841,44 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3">
+      <c r="D32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E32" s="3">
+        <v>900</v>
+      </c>
+      <c r="F32" s="3">
         <v>-3100</v>
       </c>
-      <c r="E32" s="3">
+      <c r="G32" s="3">
         <v>2300</v>
       </c>
-      <c r="F32" s="3">
+      <c r="H32" s="3">
         <v>1500</v>
       </c>
-      <c r="G32" s="3">
+      <c r="I32" s="3">
         <v>2400</v>
       </c>
-      <c r="H32" s="3">
+      <c r="J32" s="3">
         <v>100</v>
       </c>
-      <c r="I32" s="3">
-        <v>0</v>
-      </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
+        <v>0</v>
+      </c>
+      <c r="L32" s="3">
         <v>-100</v>
       </c>
-      <c r="K32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M32" s="3" t="s">
         <v>3</v>
       </c>
@@ -1751,52 +1891,64 @@
       <c r="P32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3">
+      <c r="D33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-3900</v>
+      </c>
+      <c r="F33" s="3">
         <v>-12400</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>-7400</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>-32600</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>-21200</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>-3000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>-2100</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-14200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-1700</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>-900</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>-1900</v>
       </c>
-      <c r="N33" s="3">
-        <v>0</v>
-      </c>
-      <c r="O33" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P33" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="P33" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1839,101 +1991,119 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3">
+      <c r="D35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-3900</v>
+      </c>
+      <c r="F35" s="3">
         <v>-12400</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>-7400</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>-32600</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>-21200</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>-3000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>-2100</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-14200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-1700</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>-900</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>-1900</v>
       </c>
-      <c r="N35" s="3">
-        <v>0</v>
-      </c>
-      <c r="O35" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P35" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="P35" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E38" s="2">
+        <v>45016</v>
+      </c>
+      <c r="F38" s="2">
         <v>44926</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44834</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44742</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44561</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44377</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44286</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44196</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>44012</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43921</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43646</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43555</v>
       </c>
-      <c r="O38" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="P38" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="R38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1950,8 +2120,10 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1968,35 +2140,37 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E41" s="3">
+        <v>5300</v>
+      </c>
+      <c r="F41" s="3">
         <v>9500</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>5900</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>10300</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>37600</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>18800</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>15500</v>
       </c>
-      <c r="J41" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2012,8 +2186,14 @@
       <c r="P41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2056,35 +2236,41 @@
       <c r="P42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D43" s="3">
+      <c r="D43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E43" s="3">
+        <v>10400</v>
+      </c>
+      <c r="F43" s="3">
         <v>10600</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>4600</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>5400</v>
       </c>
-      <c r="G43" s="3">
+      <c r="I43" s="3">
         <v>5600</v>
       </c>
-      <c r="H43" s="3">
+      <c r="J43" s="3">
         <v>1900</v>
       </c>
-      <c r="I43" s="3">
+      <c r="K43" s="3">
         <v>1200</v>
       </c>
-      <c r="J43" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2100,35 +2286,41 @@
       <c r="P43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>8700</v>
+      </c>
+      <c r="E44" s="3">
+        <v>10300</v>
+      </c>
+      <c r="F44" s="3">
         <v>10100</v>
       </c>
-      <c r="E44" s="3">
+      <c r="G44" s="3">
         <v>10400</v>
       </c>
-      <c r="F44" s="3">
+      <c r="H44" s="3">
         <v>9300</v>
       </c>
-      <c r="G44" s="3">
+      <c r="I44" s="3">
         <v>3000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="J44" s="3">
         <v>1000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="K44" s="3">
         <v>500</v>
       </c>
-      <c r="J44" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K44" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L44" s="3" t="s">
         <v>3</v>
       </c>
@@ -2144,35 +2336,41 @@
       <c r="P44" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q44" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R44" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D45" s="3">
+      <c r="D45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E45" s="3">
+        <v>1900</v>
+      </c>
+      <c r="F45" s="3">
         <v>1000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>2000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>2200</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>1700</v>
       </c>
-      <c r="H45" s="3">
+      <c r="J45" s="3">
         <v>2500</v>
       </c>
-      <c r="I45" s="3">
+      <c r="K45" s="3">
         <v>300</v>
       </c>
-      <c r="J45" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2188,35 +2386,41 @@
       <c r="P45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D46" s="3">
+      <c r="D46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E46" s="3">
+        <v>27900</v>
+      </c>
+      <c r="F46" s="3">
         <v>31200</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>22900</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>27200</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>47900</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>24100</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>17600</v>
       </c>
-      <c r="J46" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2232,32 +2436,38 @@
       <c r="P46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D47" s="3">
+      <c r="D47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E47" s="3">
         <v>700</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
+        <v>700</v>
+      </c>
+      <c r="G47" s="3">
         <v>800</v>
       </c>
-      <c r="F47" s="3">
+      <c r="H47" s="3">
         <v>1300</v>
       </c>
-      <c r="G47" s="3">
+      <c r="I47" s="3">
         <v>2700</v>
       </c>
-      <c r="H47" s="3">
+      <c r="J47" s="3">
         <v>2400</v>
       </c>
-      <c r="I47" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K47" s="3" t="s">
         <v>3</v>
       </c>
@@ -2270,41 +2480,47 @@
       <c r="N47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O47" s="3">
-        <v>0</v>
-      </c>
-      <c r="P47" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="O47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q47" s="3">
+        <v>0</v>
+      </c>
+      <c r="R47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E48" s="3">
         <v>7300</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
+        <v>7300</v>
+      </c>
+      <c r="G48" s="3">
         <v>7600</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>8200</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>5000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>2700</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>700</v>
       </c>
-      <c r="J48" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2320,35 +2536,41 @@
       <c r="P48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>0</v>
+      </c>
+      <c r="E49" s="3">
+        <v>40800</v>
+      </c>
+      <c r="F49" s="3">
         <v>41500</v>
       </c>
-      <c r="E49" s="3">
+      <c r="G49" s="3">
         <v>41500</v>
       </c>
-      <c r="F49" s="3">
+      <c r="H49" s="3">
         <v>42100</v>
       </c>
-      <c r="G49" s="3">
+      <c r="I49" s="3">
         <v>29800</v>
       </c>
-      <c r="H49" s="3">
+      <c r="J49" s="3">
         <v>1100</v>
       </c>
-      <c r="I49" s="3">
+      <c r="K49" s="3">
         <v>1100</v>
       </c>
-      <c r="J49" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L49" s="3" t="s">
         <v>3</v>
       </c>
@@ -2364,8 +2586,14 @@
       <c r="P49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2408,8 +2636,14 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2452,13 +2686,19 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>300</v>
+        <v>30500</v>
       </c>
       <c r="E52" s="3">
         <v>300</v>
@@ -2467,14 +2707,14 @@
         <v>300</v>
       </c>
       <c r="G52" s="3">
+        <v>300</v>
+      </c>
+      <c r="H52" s="3">
+        <v>300</v>
+      </c>
+      <c r="I52" s="3">
         <v>100</v>
       </c>
-      <c r="H52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2484,11 +2724,11 @@
       <c r="L52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M52" s="3">
-        <v>0</v>
-      </c>
-      <c r="N52" s="3">
-        <v>0</v>
+      <c r="M52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N52" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O52" s="3">
         <v>0</v>
@@ -2496,8 +2736,14 @@
       <c r="P52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q52" s="3">
+        <v>0</v>
+      </c>
+      <c r="R52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2540,35 +2786,41 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D54" s="3">
+      <c r="D54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E54" s="3">
+        <v>77000</v>
+      </c>
+      <c r="F54" s="3">
         <v>81000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>73100</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>79100</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>85500</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>30300</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>19500</v>
       </c>
-      <c r="J54" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2584,8 +2836,14 @@
       <c r="P54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2602,8 +2860,10 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2620,35 +2880,37 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D57" s="3">
+      <c r="D57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E57" s="3">
+        <v>6300</v>
+      </c>
+      <c r="F57" s="3">
         <v>7700</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>7600</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>7400</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>5600</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>5700</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>1800</v>
       </c>
-      <c r="J57" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2664,35 +2926,41 @@
       <c r="P57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="3">
+      <c r="D58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E58" s="3">
         <v>2300</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
+        <v>2300</v>
+      </c>
+      <c r="G58" s="3">
         <v>1100</v>
       </c>
-      <c r="F58" s="3">
+      <c r="H58" s="3">
         <v>1100</v>
       </c>
-      <c r="G58" s="3">
+      <c r="I58" s="3">
         <v>400</v>
       </c>
-      <c r="H58" s="3">
+      <c r="J58" s="3">
         <v>100</v>
       </c>
-      <c r="I58" s="3">
+      <c r="K58" s="3">
         <v>300</v>
       </c>
-      <c r="J58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L58" s="3" t="s">
         <v>3</v>
       </c>
@@ -2708,35 +2976,41 @@
       <c r="P58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>17800</v>
+      </c>
+      <c r="E59" s="3">
+        <v>6900</v>
+      </c>
+      <c r="F59" s="3">
         <v>7400</v>
       </c>
-      <c r="E59" s="3">
-        <v>0</v>
-      </c>
-      <c r="F59" s="3">
-        <v>0</v>
-      </c>
       <c r="G59" s="3">
+        <v>0</v>
+      </c>
+      <c r="H59" s="3">
+        <v>0</v>
+      </c>
+      <c r="I59" s="3">
         <v>100</v>
       </c>
-      <c r="H59" s="3">
-        <v>0</v>
-      </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
+        <v>0</v>
+      </c>
+      <c r="K59" s="3">
         <v>600</v>
       </c>
-      <c r="J59" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2752,35 +3026,41 @@
       <c r="P59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="D60" s="3">
+      <c r="D60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E60" s="3">
+        <v>15500</v>
+      </c>
+      <c r="F60" s="3">
         <v>17400</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>8700</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>8600</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>6100</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>5900</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>2700</v>
       </c>
-      <c r="J60" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2796,35 +3076,41 @@
       <c r="P60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>0</v>
+      </c>
+      <c r="E61" s="3">
+        <v>1600</v>
+      </c>
+      <c r="F61" s="3">
         <v>1900</v>
       </c>
-      <c r="E61" s="3">
+      <c r="G61" s="3">
         <v>2200</v>
       </c>
-      <c r="F61" s="3">
+      <c r="H61" s="3">
         <v>2600</v>
       </c>
-      <c r="G61" s="3">
+      <c r="I61" s="3">
         <v>900</v>
       </c>
-      <c r="H61" s="3">
+      <c r="J61" s="3">
         <v>200</v>
       </c>
-      <c r="I61" s="3">
+      <c r="K61" s="3">
         <v>300</v>
       </c>
-      <c r="J61" s="3">
-        <v>0</v>
-      </c>
-      <c r="K61" s="3">
-        <v>0</v>
-      </c>
       <c r="L61" s="3">
         <v>0</v>
       </c>
@@ -2840,35 +3126,41 @@
       <c r="P61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+      <c r="R61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>20800</v>
+      </c>
+      <c r="E62" s="3">
+        <v>6300</v>
+      </c>
+      <c r="F62" s="3">
         <v>5300</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>8100</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>5500</v>
       </c>
-      <c r="G62" s="3">
+      <c r="I62" s="3">
         <v>1500</v>
       </c>
-      <c r="H62" s="3">
+      <c r="J62" s="3">
         <v>100</v>
       </c>
-      <c r="I62" s="3">
+      <c r="K62" s="3">
         <v>100</v>
       </c>
-      <c r="J62" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L62" s="3" t="s">
         <v>3</v>
       </c>
@@ -2884,8 +3176,14 @@
       <c r="P62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2928,8 +3226,14 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2972,8 +3276,14 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3016,35 +3326,41 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D66" s="3">
+      <c r="D66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E66" s="3">
+        <v>23000</v>
+      </c>
+      <c r="F66" s="3">
         <v>24200</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>18600</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>16300</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>8300</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>6100</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>3100</v>
       </c>
-      <c r="J66" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L66" s="3" t="s">
         <v>3</v>
       </c>
@@ -3060,8 +3376,14 @@
       <c r="P66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3078,8 +3400,10 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3122,8 +3446,14 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3166,8 +3496,14 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3210,8 +3546,14 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3254,35 +3596,41 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-138300</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-94000</v>
+      </c>
+      <c r="F72" s="3">
         <v>-90900</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-62900</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-54900</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-24200</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-14600</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-10900</v>
       </c>
-      <c r="J72" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L72" s="3" t="s">
         <v>3</v>
       </c>
@@ -3298,8 +3646,14 @@
       <c r="P72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3342,8 +3696,14 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3386,8 +3746,14 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3430,35 +3796,41 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>10200</v>
+      </c>
+      <c r="E76" s="3">
+        <v>54100</v>
+      </c>
+      <c r="F76" s="3">
         <v>56800</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>54500</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>62800</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>77200</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>24200</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>16400</v>
       </c>
-      <c r="J76" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L76" s="3" t="s">
         <v>3</v>
       </c>
@@ -3474,8 +3846,14 @@
       <c r="P76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3518,101 +3896,119 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E80" s="2">
+        <v>45016</v>
+      </c>
+      <c r="F80" s="2">
         <v>44926</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44834</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44742</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44561</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44377</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44286</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44196</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>44012</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43921</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43646</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43555</v>
       </c>
-      <c r="O80" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="P80" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="R80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3">
+      <c r="D81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-3900</v>
+      </c>
+      <c r="F81" s="3">
         <v>-12400</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>-7400</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>-32600</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>-21200</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>-3000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>-2100</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-14200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-1700</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>-900</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>-1900</v>
       </c>
-      <c r="N81" s="3">
-        <v>0</v>
-      </c>
-      <c r="O81" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P81" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P81" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3629,41 +4025,43 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>900</v>
+      </c>
+      <c r="E83" s="3">
+        <v>900</v>
+      </c>
+      <c r="F83" s="3">
         <v>-100</v>
       </c>
-      <c r="E83" s="3">
+      <c r="G83" s="3">
         <v>1000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="H83" s="3">
         <v>1700</v>
       </c>
-      <c r="G83" s="3">
+      <c r="I83" s="3">
         <v>800</v>
       </c>
-      <c r="H83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K83" s="3">
+      <c r="K83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M83" s="3">
         <v>100</v>
       </c>
-      <c r="L83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N83" s="3" t="s">
         <v>3</v>
       </c>
@@ -3673,8 +4071,14 @@
       <c r="P83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3717,8 +4121,14 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3761,8 +4171,14 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3805,8 +4221,14 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3849,8 +4271,14 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3893,41 +4321,47 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-3500</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-4300</v>
+      </c>
+      <c r="F89" s="3">
         <v>-2100</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>-3300</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>-10500</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>-20600</v>
       </c>
-      <c r="H89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J89" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K89" s="3">
+      <c r="K89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M89" s="3">
         <v>-2100</v>
       </c>
-      <c r="L89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N89" s="3" t="s">
         <v>3</v>
       </c>
@@ -3937,8 +4371,14 @@
       <c r="P89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3955,41 +4395,43 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E91" s="3">
         <v>-300</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-200</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-700</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-2600</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-1400</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-200</v>
       </c>
-      <c r="J91" s="3">
-        <v>0</v>
-      </c>
       <c r="K91" s="3">
+        <v>-200</v>
+      </c>
+      <c r="L91" s="3">
+        <v>0</v>
+      </c>
+      <c r="M91" s="3">
         <v>-100</v>
       </c>
-      <c r="L91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N91" s="3" t="s">
         <v>3</v>
       </c>
@@ -3999,8 +4441,14 @@
       <c r="P91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4043,8 +4491,14 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4087,41 +4541,47 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F94" s="3">
         <v>500</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>-200</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>-16200</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>-14600</v>
       </c>
-      <c r="H94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J94" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K94" s="3">
+      <c r="K94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M94" s="3">
         <v>-1600</v>
       </c>
-      <c r="L94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N94" s="3" t="s">
         <v>3</v>
       </c>
@@ -4131,8 +4591,14 @@
       <c r="P94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4149,8 +4615,10 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4193,8 +4661,14 @@
       <c r="P96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4237,8 +4711,14 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4281,8 +4761,14 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4325,41 +4811,47 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D100" s="3">
+      <c r="D100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E100" s="3">
+        <v>0</v>
+      </c>
+      <c r="F100" s="3">
         <v>5300</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>-400</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>-500</v>
       </c>
-      <c r="G100" s="3">
-        <v>58100</v>
-      </c>
-      <c r="H100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I100" s="3" t="s">
-        <v>3</v>
+      <c r="I100" s="3">
+        <v>58400</v>
       </c>
       <c r="J100" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K100" s="3">
+      <c r="K100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M100" s="3">
         <v>10200</v>
       </c>
-      <c r="L100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N100" s="3" t="s">
         <v>3</v>
       </c>
@@ -4369,41 +4861,47 @@
       <c r="P100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E101" s="3">
+        <v>200</v>
+      </c>
+      <c r="F101" s="3">
         <v>-100</v>
       </c>
-      <c r="E101" s="3">
+      <c r="G101" s="3">
         <v>-400</v>
       </c>
-      <c r="F101" s="3">
+      <c r="H101" s="3">
         <v>-200</v>
       </c>
-      <c r="G101" s="3">
+      <c r="I101" s="3">
         <v>-800</v>
       </c>
-      <c r="H101" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I101" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J101" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K101" s="3">
+      <c r="K101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M101" s="3">
         <v>100</v>
       </c>
-      <c r="L101" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M101" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N101" s="3" t="s">
         <v>3</v>
       </c>
@@ -4413,41 +4911,47 @@
       <c r="P101" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R101" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-4300</v>
+      </c>
+      <c r="F102" s="3">
         <v>3600</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>-4400</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>-27300</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>22100</v>
       </c>
-      <c r="H102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J102" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K102" s="3">
+      <c r="K102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M102" s="3">
         <v>6600</v>
       </c>
-      <c r="L102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N102" s="3" t="s">
         <v>3</v>
       </c>
@@ -4455,6 +4959,12 @@
         <v>3</v>
       </c>
       <c r="P102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/FLGC_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/FLGC_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="92">
   <si>
     <t>FLGC</t>
   </si>
@@ -669,8 +669,8 @@
     <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
@@ -711,10 +711,10 @@
         <v>44742</v>
       </c>
       <c r="I7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="J7" s="2">
         <v>44561</v>
-      </c>
-      <c r="J7" s="2">
-        <v>44377</v>
       </c>
       <c r="K7" s="2">
         <v>44286</v>
@@ -758,13 +758,13 @@
         <v>10800</v>
       </c>
       <c r="H8" s="3">
-        <v>14900</v>
+        <v>8900</v>
       </c>
       <c r="I8" s="3">
+        <v>4900</v>
+      </c>
+      <c r="J8" s="3">
         <v>9000</v>
-      </c>
-      <c r="J8" s="3">
-        <v>1200</v>
       </c>
       <c r="K8" s="3">
         <v>1000</v>
@@ -808,13 +808,13 @@
         <v>5900</v>
       </c>
       <c r="H9" s="3">
-        <v>8400</v>
+        <v>5600</v>
       </c>
       <c r="I9" s="3">
+        <v>2300</v>
+      </c>
+      <c r="J9" s="3">
         <v>6600</v>
-      </c>
-      <c r="J9" s="3">
-        <v>700</v>
       </c>
       <c r="K9" s="3">
         <v>400</v>
@@ -858,13 +858,13 @@
         <v>4900</v>
       </c>
       <c r="H10" s="3">
-        <v>6500</v>
+        <v>3300</v>
       </c>
       <c r="I10" s="3">
+        <v>2600</v>
+      </c>
+      <c r="J10" s="3">
         <v>2400</v>
-      </c>
-      <c r="J10" s="3">
-        <v>500</v>
       </c>
       <c r="K10" s="3">
         <v>600</v>
@@ -928,10 +928,10 @@
         <v>200</v>
       </c>
       <c r="H12" s="3">
-        <v>400</v>
+        <v>100</v>
       </c>
       <c r="I12" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="J12" s="3">
         <v>100</v>
@@ -1015,8 +1015,8 @@
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>3</v>
+      <c r="D14" s="3">
+        <v>34900</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>3</v>
@@ -1028,13 +1028,13 @@
         <v>-200</v>
       </c>
       <c r="H14" s="3">
-        <v>16000</v>
-      </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>3</v>
+        <v>31600</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J14" s="3">
+        <v>0</v>
       </c>
       <c r="K14" s="3" t="s">
         <v>3</v>
@@ -1078,13 +1078,13 @@
         <v>1000</v>
       </c>
       <c r="H15" s="3">
-        <v>1700</v>
+        <v>700</v>
       </c>
       <c r="I15" s="3">
         <v>500</v>
       </c>
       <c r="J15" s="3">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="K15" s="3">
         <v>100</v>
@@ -1132,8 +1132,8 @@
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3" t="s">
-        <v>3</v>
+      <c r="D17" s="3">
+        <v>61500</v>
       </c>
       <c r="E17" s="3">
         <v>23200</v>
@@ -1145,13 +1145,13 @@
         <v>15800</v>
       </c>
       <c r="H17" s="3">
-        <v>46000</v>
+        <v>30500</v>
       </c>
       <c r="I17" s="3">
+        <v>12600</v>
+      </c>
+      <c r="J17" s="3">
         <v>28000</v>
-      </c>
-      <c r="J17" s="3">
-        <v>4000</v>
       </c>
       <c r="K17" s="3">
         <v>3100</v>
@@ -1182,8 +1182,8 @@
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>3</v>
+      <c r="D18" s="3">
+        <v>-40000</v>
       </c>
       <c r="E18" s="3">
         <v>-3100</v>
@@ -1195,13 +1195,13 @@
         <v>-5000</v>
       </c>
       <c r="H18" s="3">
-        <v>-31100</v>
+        <v>-21600</v>
       </c>
       <c r="I18" s="3">
+        <v>-7700</v>
+      </c>
+      <c r="J18" s="3">
         <v>-19000</v>
-      </c>
-      <c r="J18" s="3">
-        <v>-2800</v>
       </c>
       <c r="K18" s="3">
         <v>-2100</v>
@@ -1252,8 +1252,8 @@
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>3</v>
+      <c r="D20" s="3">
+        <v>1900</v>
       </c>
       <c r="E20" s="3">
         <v>-900</v>
@@ -1265,13 +1265,13 @@
         <v>-2300</v>
       </c>
       <c r="H20" s="3">
-        <v>-1500</v>
+        <v>-1400</v>
       </c>
       <c r="I20" s="3">
+        <v>100</v>
+      </c>
+      <c r="J20" s="3">
         <v>-2400</v>
-      </c>
-      <c r="J20" s="3">
-        <v>-100</v>
       </c>
       <c r="K20" s="3">
         <v>0</v>
@@ -1302,8 +1302,8 @@
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>3</v>
+      <c r="D21" s="3">
+        <v>-37200</v>
       </c>
       <c r="E21" s="3">
         <v>-3000</v>
@@ -1312,16 +1312,16 @@
         <v>-14100</v>
       </c>
       <c r="G21" s="3">
-        <v>-6300</v>
+        <v>-6000</v>
       </c>
       <c r="H21" s="3">
-        <v>-30900</v>
+        <v>-22100</v>
       </c>
       <c r="I21" s="3">
+        <v>-7200</v>
+      </c>
+      <c r="J21" s="3">
         <v>-20900</v>
-      </c>
-      <c r="J21" s="3" t="s">
-        <v>3</v>
       </c>
       <c r="K21" s="3" t="s">
         <v>3</v>
@@ -1367,11 +1367,11 @@
       <c r="H22" s="3">
         <v>100</v>
       </c>
-      <c r="I22" s="3">
+      <c r="I22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J22" s="3">
         <v>100</v>
-      </c>
-      <c r="J22" s="3">
-        <v>0</v>
       </c>
       <c r="K22" s="3">
         <v>0</v>
@@ -1402,8 +1402,8 @@
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="3" t="s">
-        <v>3</v>
+      <c r="D23" s="3">
+        <v>-38100</v>
       </c>
       <c r="E23" s="3">
         <v>-4000</v>
@@ -1415,13 +1415,13 @@
         <v>-7400</v>
       </c>
       <c r="H23" s="3">
-        <v>-32700</v>
+        <v>-23100</v>
       </c>
       <c r="I23" s="3">
+        <v>-7600</v>
+      </c>
+      <c r="J23" s="3">
         <v>-21500</v>
-      </c>
-      <c r="J23" s="3">
-        <v>-3000</v>
       </c>
       <c r="K23" s="3">
         <v>-2200</v>
@@ -1452,8 +1452,8 @@
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D24" s="3" t="s">
-        <v>3</v>
+      <c r="D24" s="3">
+        <v>-1100</v>
       </c>
       <c r="E24" s="3">
         <v>-100</v>
@@ -1468,10 +1468,10 @@
         <v>0</v>
       </c>
       <c r="I24" s="3">
+        <v>0</v>
+      </c>
+      <c r="J24" s="3">
         <v>-100</v>
-      </c>
-      <c r="J24" s="3" t="s">
-        <v>3</v>
       </c>
       <c r="K24" s="3" t="s">
         <v>3</v>
@@ -1552,8 +1552,8 @@
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3" t="s">
-        <v>3</v>
+      <c r="D26" s="3">
+        <v>-37000</v>
       </c>
       <c r="E26" s="3">
         <v>-3900</v>
@@ -1565,13 +1565,13 @@
         <v>-7400</v>
       </c>
       <c r="H26" s="3">
-        <v>-32700</v>
+        <v>-23100</v>
       </c>
       <c r="I26" s="3">
+        <v>-7600</v>
+      </c>
+      <c r="J26" s="3">
         <v>-21400</v>
-      </c>
-      <c r="J26" s="3">
-        <v>-3000</v>
       </c>
       <c r="K26" s="3">
         <v>-2200</v>
@@ -1602,8 +1602,8 @@
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3" t="s">
-        <v>3</v>
+      <c r="D27" s="3">
+        <v>-36700</v>
       </c>
       <c r="E27" s="3">
         <v>-3900</v>
@@ -1615,13 +1615,13 @@
         <v>-7400</v>
       </c>
       <c r="H27" s="3">
-        <v>-32600</v>
+        <v>-23000</v>
       </c>
       <c r="I27" s="3">
+        <v>-7600</v>
+      </c>
+      <c r="J27" s="3">
         <v>-21200</v>
-      </c>
-      <c r="J27" s="3">
-        <v>-3000</v>
       </c>
       <c r="K27" s="3">
         <v>-2100</v>
@@ -1703,25 +1703,25 @@
         <v>24</v>
       </c>
       <c r="D29" s="3">
-        <v>0</v>
-      </c>
-      <c r="E29" s="3">
-        <v>0</v>
-      </c>
-      <c r="F29" s="3">
-        <v>0</v>
-      </c>
-      <c r="G29" s="3">
-        <v>0</v>
+        <v>-7600</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G29" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="H29" s="3">
-        <v>0</v>
-      </c>
-      <c r="I29" s="3">
-        <v>0</v>
-      </c>
-      <c r="J29" s="3">
-        <v>0</v>
+        <v>-1600</v>
+      </c>
+      <c r="I29" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J29" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K29" s="3">
         <v>0</v>
@@ -1852,8 +1852,8 @@
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3" t="s">
-        <v>3</v>
+      <c r="D32" s="3">
+        <v>-1900</v>
       </c>
       <c r="E32" s="3">
         <v>900</v>
@@ -1865,13 +1865,13 @@
         <v>2300</v>
       </c>
       <c r="H32" s="3">
-        <v>1500</v>
+        <v>1400</v>
       </c>
       <c r="I32" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J32" s="3">
         <v>2400</v>
-      </c>
-      <c r="J32" s="3">
-        <v>100</v>
       </c>
       <c r="K32" s="3">
         <v>0</v>
@@ -1902,8 +1902,8 @@
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3" t="s">
-        <v>3</v>
+      <c r="D33" s="3">
+        <v>-44300</v>
       </c>
       <c r="E33" s="3">
         <v>-3900</v>
@@ -1915,13 +1915,13 @@
         <v>-7400</v>
       </c>
       <c r="H33" s="3">
-        <v>-32600</v>
+        <v>-24600</v>
       </c>
       <c r="I33" s="3">
+        <v>-7600</v>
+      </c>
+      <c r="J33" s="3">
         <v>-21200</v>
-      </c>
-      <c r="J33" s="3">
-        <v>-3000</v>
       </c>
       <c r="K33" s="3">
         <v>-2100</v>
@@ -2002,8 +2002,8 @@
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3" t="s">
-        <v>3</v>
+      <c r="D35" s="3">
+        <v>-44300</v>
       </c>
       <c r="E35" s="3">
         <v>-3900</v>
@@ -2015,13 +2015,13 @@
         <v>-7400</v>
       </c>
       <c r="H35" s="3">
-        <v>-32600</v>
+        <v>-24600</v>
       </c>
       <c r="I35" s="3">
+        <v>-7600</v>
+      </c>
+      <c r="J35" s="3">
         <v>-21200</v>
-      </c>
-      <c r="J35" s="3">
-        <v>-3000</v>
       </c>
       <c r="K35" s="3">
         <v>-2100</v>
@@ -2073,10 +2073,10 @@
         <v>44742</v>
       </c>
       <c r="I38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="J38" s="2">
         <v>44561</v>
-      </c>
-      <c r="J38" s="2">
-        <v>44377</v>
       </c>
       <c r="K38" s="2">
         <v>44286</v>
@@ -2154,7 +2154,7 @@
         <v>5300</v>
       </c>
       <c r="F41" s="3">
-        <v>9500</v>
+        <v>8900</v>
       </c>
       <c r="G41" s="3">
         <v>5900</v>
@@ -2247,14 +2247,14 @@
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D43" s="3" t="s">
-        <v>3</v>
+      <c r="D43" s="3">
+        <v>8200</v>
       </c>
       <c r="E43" s="3">
         <v>10400</v>
       </c>
       <c r="F43" s="3">
-        <v>10600</v>
+        <v>9000</v>
       </c>
       <c r="G43" s="3">
         <v>4600</v>
@@ -2304,7 +2304,7 @@
         <v>10300</v>
       </c>
       <c r="F44" s="3">
-        <v>10100</v>
+        <v>8900</v>
       </c>
       <c r="G44" s="3">
         <v>10400</v>
@@ -2347,14 +2347,14 @@
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D45" s="3" t="s">
-        <v>3</v>
+      <c r="D45" s="3">
+        <v>3600</v>
       </c>
       <c r="E45" s="3">
         <v>1900</v>
       </c>
       <c r="F45" s="3">
-        <v>1000</v>
+        <v>4500</v>
       </c>
       <c r="G45" s="3">
         <v>2000</v>
@@ -2397,8 +2397,8 @@
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D46" s="3" t="s">
-        <v>3</v>
+      <c r="D46" s="3">
+        <v>22300</v>
       </c>
       <c r="E46" s="3">
         <v>27900</v>
@@ -2447,8 +2447,8 @@
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D47" s="3" t="s">
-        <v>3</v>
+      <c r="D47" s="3">
+        <v>200</v>
       </c>
       <c r="E47" s="3">
         <v>700</v>
@@ -2498,13 +2498,13 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="E48" s="3">
         <v>7300</v>
       </c>
       <c r="F48" s="3">
-        <v>7300</v>
+        <v>3300</v>
       </c>
       <c r="G48" s="3">
         <v>7600</v>
@@ -2548,13 +2548,13 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>0</v>
+        <v>5700</v>
       </c>
       <c r="E49" s="3">
         <v>40800</v>
       </c>
       <c r="F49" s="3">
-        <v>41500</v>
+        <v>41100</v>
       </c>
       <c r="G49" s="3">
         <v>41500</v>
@@ -2698,13 +2698,13 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>30500</v>
+        <v>300</v>
       </c>
       <c r="E52" s="3">
         <v>300</v>
       </c>
       <c r="F52" s="3">
-        <v>300</v>
+        <v>4700</v>
       </c>
       <c r="G52" s="3">
         <v>300</v>
@@ -2797,8 +2797,8 @@
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D54" s="3" t="s">
-        <v>3</v>
+      <c r="D54" s="3">
+        <v>30500</v>
       </c>
       <c r="E54" s="3">
         <v>77000</v>
@@ -2887,14 +2887,14 @@
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D57" s="3" t="s">
-        <v>3</v>
+      <c r="D57" s="3">
+        <v>6600</v>
       </c>
       <c r="E57" s="3">
         <v>6300</v>
       </c>
       <c r="F57" s="3">
-        <v>7700</v>
+        <v>7800</v>
       </c>
       <c r="G57" s="3">
         <v>7600</v>
@@ -2937,23 +2937,23 @@
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="3" t="s">
-        <v>3</v>
+      <c r="D58" s="3">
+        <v>1200</v>
       </c>
       <c r="E58" s="3">
-        <v>2300</v>
+        <v>1100</v>
       </c>
       <c r="F58" s="3">
-        <v>2300</v>
+        <v>1100</v>
       </c>
       <c r="G58" s="3">
-        <v>1100</v>
+        <v>0</v>
       </c>
       <c r="H58" s="3">
-        <v>1100</v>
+        <v>0</v>
       </c>
       <c r="I58" s="3">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="J58" s="3">
         <v>100</v>
@@ -2988,25 +2988,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>17800</v>
+        <v>10000</v>
       </c>
       <c r="E59" s="3">
-        <v>6900</v>
+        <v>8100</v>
       </c>
       <c r="F59" s="3">
-        <v>7400</v>
+        <v>8500</v>
       </c>
       <c r="G59" s="3">
-        <v>0</v>
+        <v>1100</v>
       </c>
       <c r="H59" s="3">
-        <v>0</v>
+        <v>1100</v>
       </c>
       <c r="I59" s="3">
+        <v>500</v>
+      </c>
+      <c r="J59" s="3">
         <v>100</v>
-      </c>
-      <c r="J59" s="3">
-        <v>0</v>
       </c>
       <c r="K59" s="3">
         <v>600</v>
@@ -3037,8 +3037,8 @@
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="D60" s="3" t="s">
-        <v>3</v>
+      <c r="D60" s="3">
+        <v>17800</v>
       </c>
       <c r="E60" s="3">
         <v>15500</v>
@@ -3091,7 +3091,7 @@
         <v>0</v>
       </c>
       <c r="E61" s="3">
-        <v>1600</v>
+        <v>0</v>
       </c>
       <c r="F61" s="3">
         <v>1900</v>
@@ -3138,13 +3138,13 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>20800</v>
+        <v>2400</v>
       </c>
       <c r="E62" s="3">
-        <v>6300</v>
+        <v>7900</v>
       </c>
       <c r="F62" s="3">
-        <v>5300</v>
+        <v>7100</v>
       </c>
       <c r="G62" s="3">
         <v>8100</v>
@@ -3337,8 +3337,8 @@
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D66" s="3" t="s">
-        <v>3</v>
+      <c r="D66" s="3">
+        <v>19500</v>
       </c>
       <c r="E66" s="3">
         <v>23000</v>
@@ -3808,7 +3808,7 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>10200</v>
+        <v>10900</v>
       </c>
       <c r="E76" s="3">
         <v>54100</v>
@@ -3928,10 +3928,10 @@
         <v>44742</v>
       </c>
       <c r="I80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="J80" s="2">
         <v>44561</v>
-      </c>
-      <c r="J80" s="2">
-        <v>44377</v>
       </c>
       <c r="K80" s="2">
         <v>44286</v>
@@ -3962,8 +3962,8 @@
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3" t="s">
-        <v>3</v>
+      <c r="D81" s="3">
+        <v>-44300</v>
       </c>
       <c r="E81" s="3">
         <v>-3900</v>
@@ -3975,13 +3975,13 @@
         <v>-7400</v>
       </c>
       <c r="H81" s="3">
-        <v>-32600</v>
+        <v>-24600</v>
       </c>
       <c r="I81" s="3">
+        <v>-7600</v>
+      </c>
+      <c r="J81" s="3">
         <v>-21200</v>
-      </c>
-      <c r="J81" s="3">
-        <v>-3000</v>
       </c>
       <c r="K81" s="3">
         <v>-2100</v>
@@ -4045,13 +4045,13 @@
         <v>1000</v>
       </c>
       <c r="H83" s="3">
-        <v>1700</v>
+        <v>1300</v>
       </c>
       <c r="I83" s="3">
+        <v>500</v>
+      </c>
+      <c r="J83" s="3">
         <v>800</v>
-      </c>
-      <c r="J83" s="3" t="s">
-        <v>3</v>
       </c>
       <c r="K83" s="3" t="s">
         <v>3</v>
@@ -4333,7 +4333,7 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-3500</v>
+        <v>-3900</v>
       </c>
       <c r="E89" s="3">
         <v>-4300</v>
@@ -4345,13 +4345,13 @@
         <v>-3300</v>
       </c>
       <c r="H89" s="3">
-        <v>-10500</v>
+        <v>-3900</v>
       </c>
       <c r="I89" s="3">
+        <v>-6600</v>
+      </c>
+      <c r="J89" s="3">
         <v>-20600</v>
-      </c>
-      <c r="J89" s="3" t="s">
-        <v>3</v>
       </c>
       <c r="K89" s="3" t="s">
         <v>3</v>
@@ -4406,22 +4406,22 @@
         <v>-100</v>
       </c>
       <c r="E91" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F91" s="3">
         <v>-300</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-200</v>
       </c>
-      <c r="G91" s="3">
-        <v>-700</v>
-      </c>
       <c r="H91" s="3">
+        <v>-500</v>
+      </c>
+      <c r="I91" s="3">
+        <v>-200</v>
+      </c>
+      <c r="J91" s="3">
         <v>-2600</v>
-      </c>
-      <c r="I91" s="3">
-        <v>-1400</v>
-      </c>
-      <c r="J91" s="3">
-        <v>-200</v>
       </c>
       <c r="K91" s="3">
         <v>-200</v>
@@ -4565,13 +4565,13 @@
         <v>-200</v>
       </c>
       <c r="H94" s="3">
-        <v>-16200</v>
+        <v>-500</v>
       </c>
       <c r="I94" s="3">
+        <v>-15600</v>
+      </c>
+      <c r="J94" s="3">
         <v>-14600</v>
-      </c>
-      <c r="J94" s="3" t="s">
-        <v>3</v>
       </c>
       <c r="K94" s="3" t="s">
         <v>3</v>
@@ -4822,8 +4822,8 @@
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D100" s="3" t="s">
-        <v>3</v>
+      <c r="D100" s="3">
+        <v>100</v>
       </c>
       <c r="E100" s="3">
         <v>0</v>
@@ -4832,16 +4832,16 @@
         <v>5300</v>
       </c>
       <c r="G100" s="3">
-        <v>-400</v>
+        <v>-900</v>
       </c>
       <c r="H100" s="3">
-        <v>-500</v>
+        <v>-200</v>
       </c>
       <c r="I100" s="3">
+        <v>200</v>
+      </c>
+      <c r="J100" s="3">
         <v>58400</v>
-      </c>
-      <c r="J100" s="3" t="s">
-        <v>3</v>
       </c>
       <c r="K100" s="3" t="s">
         <v>3</v>
@@ -4873,7 +4873,7 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-800</v>
+        <v>400</v>
       </c>
       <c r="E101" s="3">
         <v>200</v>
@@ -4882,16 +4882,16 @@
         <v>-100</v>
       </c>
       <c r="G101" s="3">
+        <v>-500</v>
+      </c>
+      <c r="H101" s="3">
+        <v>200</v>
+      </c>
+      <c r="I101" s="3">
         <v>-400</v>
       </c>
-      <c r="H101" s="3">
-        <v>-200</v>
-      </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-800</v>
-      </c>
-      <c r="J101" s="3" t="s">
-        <v>3</v>
       </c>
       <c r="K101" s="3" t="s">
         <v>3</v>
@@ -4923,7 +4923,7 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-3000</v>
+        <v>-3500</v>
       </c>
       <c r="E102" s="3">
         <v>-4300</v>
@@ -4935,13 +4935,13 @@
         <v>-4400</v>
       </c>
       <c r="H102" s="3">
-        <v>-27300</v>
+        <v>-5000</v>
       </c>
       <c r="I102" s="3">
+        <v>-22400</v>
+      </c>
+      <c r="J102" s="3">
         <v>22100</v>
-      </c>
-      <c r="J102" s="3" t="s">
-        <v>3</v>
       </c>
       <c r="K102" s="3" t="s">
         <v>3</v>
